--- a/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/4_wy2016-2018/4_fTHg Model Results.xlsx
+++ b/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/4_wy2016-2018/4_fTHg Model Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slrose\R\2018_CCSB_LoadsData_WY2010-2017\Model Stats_rloadest\4_wy2016-2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20B4196-EBAC-4D53-8B98-A997A2119273}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A35E4E-ABA7-4DCF-AD79-83EC1B3A1505}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28995" yWindow="12915" windowWidth="15285" windowHeight="11385" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fTHg wy2016-18 Model Results" sheetId="2" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="470">
   <si>
     <t>Model #</t>
   </si>
@@ -201,33 +201,6 @@
     <t>fTHg wy 2016-18</t>
   </si>
   <si>
-    <t>In loadReg(fTHg ~ model(1), data = fTHg_Outlet, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(fTHg ~ model(2), data = fTHg_Outlet, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(fTHg ~ model(3), data = fTHg_Outlet, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(fTHg ~ model(4), data = fTHg_Outlet, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(fTHg ~ model(5), data = fTHg_Outlet, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(fTHg ~ model(6), data = fTHg_Outlet, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(fTHg ~ model(7), data = fTHg_Outlet, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(fTHg ~ model(8), data = fTHg_Outlet, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(fTHg ~ model(9), data = fTHg_Outlet, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
     <t>Rumsey fTHg</t>
   </si>
   <si>
@@ -258,9 +231,6 @@
     <t>In loadReg(fTHg ~ model(9), data = fTHg_Rumsey, flow = "Flow", dates = "Dates",  :</t>
   </si>
   <si>
-    <t>Outlet fTHg (No samples at Spillway for wy2018)</t>
-  </si>
-  <si>
     <t>&gt; fTHg_Rumsey&lt;-importRDB("fTHg_RumseyR.txt")</t>
   </si>
   <si>
@@ -916,6 +886,600 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>Outflow fTHg (Using Combined Outflow Inst.Flow for models only)</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>&gt; fTHg_Outflowm1 &lt;- loadReg(fTHg ~model(1), data = fTHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(fTHg ~ model(1), data = fTHg_Outflow, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fTHg_Outflowm1</t>
+  </si>
+  <si>
+    <t>Station: CCSB-Yolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Number of Observations: 31</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Center of Decimal Time: 2016.949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  Center of ln(Q): 5.555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Period of record: 2016-01-20 to 2018-04-08</t>
+  </si>
+  <si>
+    <t>(Intercept)   -5.762    0.13576  -42.44       0</t>
+  </si>
+  <si>
+    <t>lnQ            1.013    0.05731   17.67       0</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.4413</t>
+  </si>
+  <si>
+    <t>R-squared: 91.5 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 76.42 on 1 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.018</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.5146</t>
+  </si>
+  <si>
+    <t>Est   0   0 0.01 0.06 0.18 0.21 0.22</t>
+  </si>
+  <si>
+    <t>Obs   0   0 0.01 0.06 0.17 0.28 0.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -6.67 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8809</t>
+  </si>
+  <si>
+    <t>&gt; fTHg_Outflowm2 &lt;- loadReg(fTHg ~model(2), data = fTHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(fTHg ~ model(2), data = fTHg_Outflow, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fTHg_Outflowm2</t>
+  </si>
+  <si>
+    <t>(Intercept) -5.92697    0.15328 -38.669  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.01266    0.05455  18.562  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.02939    0.01469   2.001  0.0418</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.3999</t>
+  </si>
+  <si>
+    <t>R-squared: 92.56 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 80.57 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0787</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.6216</t>
+  </si>
+  <si>
+    <t>Est   0   0 0.01 0.06 0.23 0.28 0.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 9.975 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.887</t>
+  </si>
+  <si>
+    <t>&gt; fTHg_Outflowm3 &lt;- loadReg(fTHg ~model(3), data = fTHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(fTHg ~ model(3), data = fTHg_Outflow, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fTHg_Outflowm3</t>
+  </si>
+  <si>
+    <t>(Intercept)  -5.9172    0.12255 -48.284   0e+00</t>
+  </si>
+  <si>
+    <t>lnQ           1.0117    0.04837  20.919   0e+00</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.5838    0.16370  -3.566   7e-04</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.3143</t>
+  </si>
+  <si>
+    <t>R-squared: 94.16 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 88.03 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.6102</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        VIF</t>
+  </si>
+  <si>
+    <t>lnQ       1</t>
+  </si>
+  <si>
+    <t>DECTIME   1</t>
+  </si>
+  <si>
+    <t>Est   0   0 0.01 0.06 0.13 0.15 0.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -20.03 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.7997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.7716</t>
+  </si>
+  <si>
+    <t>&gt; fTHg_Outflowm4 &lt;- loadReg(fTHg ~model(4), data = fTHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(fTHg ~ model(4), data = fTHg_Outflow, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fTHg_Outflowm4</t>
+  </si>
+  <si>
+    <t>(Intercept)  -6.5887    0.58564 -11.2503  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           0.9926    0.06092  16.2948  0.0000</t>
+  </si>
+  <si>
+    <t>sin.DECTIME   0.3843    0.54669   0.7029  0.4534</t>
+  </si>
+  <si>
+    <t>cos.DECTIME   1.1060    0.52815   2.0941  0.0308</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.359</t>
+  </si>
+  <si>
+    <t>R-squared: 93.56 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 85.03 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0546</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3204</t>
+  </si>
+  <si>
+    <t>lnQ         1.389</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 4.070</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 3.646</t>
+  </si>
+  <si>
+    <t>Est   0   0 0.01 0.06 0.21 0.23 0.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 0.9865 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.9151</t>
+  </si>
+  <si>
+    <t>&gt; fTHg_Outflowm5 &lt;- loadReg(fTHg ~model(5), data = fTHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(fTHg ~ model(5), data = fTHg_Outflow, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fTHg_Outflowm5</t>
+  </si>
+  <si>
+    <t>(Intercept)  -6.1744    0.12331 -50.074   0e+00</t>
+  </si>
+  <si>
+    <t>lnQ           1.0116    0.04015  25.195   0e+00</t>
+  </si>
+  <si>
+    <t>lnQ2          0.0408    0.01105   3.692   4e-04</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.6904    0.13892  -4.970   0e+00</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2166</t>
+  </si>
+  <si>
+    <t>R-squared: 96.12 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 100.7 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.096</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2503</t>
+  </si>
+  <si>
+    <t>lnQ     1.000</t>
+  </si>
+  <si>
+    <t>lnQ2    1.045</t>
+  </si>
+  <si>
+    <t>DECTIME 1.045</t>
+  </si>
+  <si>
+    <t>Est   0   0 0.01 0.06 0.17 0.21 0.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -4.961 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.9054</t>
+  </si>
+  <si>
+    <t>&gt; fTHg_Outflowm6 &lt;- loadReg(fTHg ~model(6), data = fTHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(fTHg ~ model(6), data = fTHg_Outflow, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fTHg_Outflowm6</t>
+  </si>
+  <si>
+    <t>(Intercept) -6.77018    0.59114 -11.4528  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          0.98369    0.06029  16.3161  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.02046    0.01488   1.3751  0.1402</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  0.52817    0.54798   0.9639  0.2968</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  1.08308    0.51992   2.0832  0.0287</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.3476</t>
+  </si>
+  <si>
+    <t>R-squared: 94 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 87.21 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0456</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.4002</t>
+  </si>
+  <si>
+    <t>lnQ         1.405</t>
+  </si>
+  <si>
+    <t>lnQ2        1.181</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 4.224</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 3.649</t>
+  </si>
+  <si>
+    <t>Est   0   0 0.01 0.06 0.24 0.27 0.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 10.65 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8743</t>
+  </si>
+  <si>
+    <t>&gt; fTHg_Outflowm7 &lt;- loadReg(fTHg ~model(7), data = fTHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(fTHg ~ model(7), data = fTHg_Outflow, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fTHg_Outflowm7</t>
+  </si>
+  <si>
+    <t>(Intercept)  -5.8509    0.55414 -10.5586  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.0368    0.05424  19.1133  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.5580    0.17324  -3.2208  0.0013</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  -0.3900    0.52880  -0.7374  0.4231</t>
+  </si>
+  <si>
+    <t>cos.DECTIME   0.2803    0.52228   0.5368  0.5589</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2665</t>
+  </si>
+  <si>
+    <t>R-squared: 95.4 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 95.44 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.2918</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2015</t>
+  </si>
+  <si>
+    <t>lnQ         1.483</t>
+  </si>
+  <si>
+    <t>DECTIME     1.321</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 5.130</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 4.803</t>
+  </si>
+  <si>
+    <t>Est   0   0 0.01 0.06 0.15 0.21 0.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -12.89 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.8711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.9156</t>
+  </si>
+  <si>
+    <t>&gt; fTHg_Outflowm8 &lt;- loadReg(fTHg ~model(8), data = fTHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(fTHg ~ model(8), data = fTHg_Outflow, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fTHg_Outflowm8</t>
+  </si>
+  <si>
+    <t>(Intercept) -5.99776    0.49754 -12.0548  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.03107    0.04847  21.2730  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.03319    0.01202   2.7611  0.0041</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.66960    0.15985  -4.1888  0.0000</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -0.31133    0.47294  -0.6583  0.4655</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  0.07797    0.47198   0.1652  0.8541</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2124</t>
+  </si>
+  <si>
+    <t>R-squared: 96.47 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 103.7 on 5 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.1207</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2841</t>
+  </si>
+  <si>
+    <t>lnQ         1.486</t>
+  </si>
+  <si>
+    <t>lnQ2        1.261</t>
+  </si>
+  <si>
+    <t>DECTIME     1.411</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 5.149</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 4.922</t>
+  </si>
+  <si>
+    <t>Est   0   0 0.01 0.06 0.17 0.23 0.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -2.894 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.9556</t>
+  </si>
+  <si>
+    <t>&gt; fTHg_Outflowm9 &lt;- loadReg(fTHg ~model(9), data = fTHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(fTHg ~ model(9), data = fTHg_Outflow, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fTHg_Outflowm9</t>
+  </si>
+  <si>
+    <t>(Intercept) -5.72821    0.48621 -11.781  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.10306    0.05749  19.186  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.04575    0.01286   3.559  0.0003</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.78971    0.16137  -4.894  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME2     0.55842    0.27150   2.057  0.0249</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -1.00984    0.55983  -1.804  0.0471</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -0.41234    0.50409  -0.818  0.3559</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.1881</t>
+  </si>
+  <si>
+    <t>R-squared: 97 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 108.7 on 6 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.2111</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3331</t>
+  </si>
+  <si>
+    <t>lnQ2        1.629</t>
+  </si>
+  <si>
+    <t>DECTIME     1.624</t>
+  </si>
+  <si>
+    <t>DECTIME2    2.364</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 8.147</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 6.339</t>
+  </si>
+  <si>
+    <t>Est   0   0 0.01 0.06 0.15 0.27 0.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -1.05 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.9723</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 31; Period of record: 2016-01-20 to 2018-04-08</t>
+  </si>
+  <si>
+    <t>15.76, 14.43, 13.50</t>
+  </si>
+  <si>
+    <t>15.86, 16.11, 18.96</t>
+  </si>
+  <si>
+    <t>12.45, 15.32, 28.17</t>
+  </si>
+  <si>
+    <t>12.49, 15.53, 28.63</t>
+  </si>
+  <si>
+    <t>n-close</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1264,9 +1828,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1274,6 +1835,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1300,10 +1870,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1773,14 +2340,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AD30"/>
+  <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q33" sqref="Q33"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O18" sqref="O17:O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="5" width="10.7109375" style="1" customWidth="1"/>
@@ -1788,38 +2355,41 @@
     <col min="8" max="11" width="10.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" style="30" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" style="6" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="2"/>
+    <col min="14" max="14" width="2.5703125" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" style="30" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" style="6" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44" t="s">
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="44"/>
-      <c r="N1" s="21"/>
-      <c r="Q1" s="21"/>
-    </row>
-    <row r="2" spans="1:30" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="M1" s="46"/>
+      <c r="O1" s="21"/>
+      <c r="R1" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
@@ -1859,12 +2429,15 @@
       <c r="M2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="25"/>
+      <c r="N2"/>
       <c r="O2" s="25"/>
       <c r="P2" s="25"/>
-      <c r="Q2" s="3"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="Q2" s="25"/>
+      <c r="R2" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="21"/>
       <c r="B3" s="26" t="s">
         <v>30</v>
@@ -1900,15 +2473,17 @@
       <c r="M3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="O3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="33"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-    </row>
-    <row r="4" spans="1:30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="P3" s="33"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="27"/>
+    </row>
+    <row r="4" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>36</v>
       </c>
@@ -1939,50 +2514,52 @@
       <c r="M4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="29" t="s">
+      <c r="O4" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="34"/>
-      <c r="P4" s="36"/>
-    </row>
-    <row r="5" spans="1:30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="P5" s="37"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B6" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="51"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="36"/>
+    </row>
+    <row r="5" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q5" s="37"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B6" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="53"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="45" t="s">
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B7" s="48" t="s">
+        <v>464</v>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="45"/>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:30" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="M7" s="47"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:31" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -2023,23 +2600,26 @@
         <v>4</v>
       </c>
       <c r="N8" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="O8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="20" t="s">
+      <c r="P8" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="P8" s="38" t="s">
+      <c r="Q8" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="6">
         <v>0</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -2057,35 +2637,55 @@
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="8" t="s">
+      <c r="I9" s="6">
+        <v>91.5</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.51459999999999995</v>
+      </c>
+      <c r="L9" s="6">
+        <v>-6.67</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0.88090000000000002</v>
+      </c>
+      <c r="N9" s="6">
+        <v>1</v>
+      </c>
+      <c r="O9" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="P9" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD9" s="9" t="s">
+      <c r="T9" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB9" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="9"/>
+    </row>
+    <row r="10" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="39">
         <v>2</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="6">
         <v>0</v>
       </c>
-      <c r="C10" s="19"/>
+      <c r="C10" s="19">
+        <v>4.1799999999999997E-2</v>
+      </c>
       <c r="D10" s="10" t="s">
         <v>9</v>
       </c>
@@ -2098,38 +2698,58 @@
       <c r="G10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="8" t="s">
+      <c r="I10" s="45">
+        <v>92.56</v>
+      </c>
+      <c r="J10" s="45">
+        <v>7.8700000000000006E-2</v>
+      </c>
+      <c r="K10" s="45">
+        <v>0.62160000000000004</v>
+      </c>
+      <c r="L10" s="45">
+        <v>9.9749999999999996</v>
+      </c>
+      <c r="M10" s="45">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="N10" s="6">
+        <v>2</v>
+      </c>
+      <c r="O10" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="P10" s="40" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD10" s="9" t="s">
+      <c r="T10" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="AB10" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="9"/>
+    </row>
+    <row r="11" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="31">
         <v>3</v>
       </c>
-      <c r="B11" s="40">
+      <c r="B11" s="31">
         <v>0</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="32"/>
+      <c r="D11" s="32">
+        <v>6.9999999999999999E-4</v>
+      </c>
       <c r="E11" s="10" t="s">
         <v>9</v>
       </c>
@@ -2139,32 +2759,50 @@
       <c r="G11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="H11" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="8" t="s">
+      <c r="I11" s="31">
+        <v>94.16</v>
+      </c>
+      <c r="J11" s="31">
+        <v>0.61019999999999996</v>
+      </c>
+      <c r="K11" s="31">
+        <v>0.2913</v>
+      </c>
+      <c r="L11" s="31">
+        <v>-20.03</v>
+      </c>
+      <c r="M11" s="31">
+        <v>0.77159999999999995</v>
+      </c>
+      <c r="N11" s="31">
+        <v>3</v>
+      </c>
+      <c r="O11" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="P11" s="31" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD11" s="9" t="s">
+      <c r="T11" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB11" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="9"/>
+    </row>
+    <row r="12" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="39">
         <v>4</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="6">
         <v>0</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -2176,241 +2814,370 @@
       <c r="E12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="11" t="s">
+      <c r="F12" s="6">
+        <v>0.45340000000000003</v>
+      </c>
+      <c r="G12" s="45">
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
+      <c r="I12" s="45">
+        <v>93.56</v>
+      </c>
+      <c r="J12" s="45">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="K12" s="45">
+        <v>0.32040000000000002</v>
+      </c>
+      <c r="L12" s="45">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="M12" s="45">
+        <v>0.91510000000000002</v>
+      </c>
+      <c r="N12" s="31">
+        <v>4</v>
+      </c>
       <c r="O12" s="39"/>
-      <c r="Q12" s="8" t="s">
+      <c r="P12" s="39"/>
+      <c r="R12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD12" s="9" t="s">
+      <c r="T12" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="AB12" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A13" s="39">
+      <c r="AE12" s="9"/>
+    </row>
+    <row r="13" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
         <v>5</v>
       </c>
       <c r="B13" s="11">
         <v>0</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="10" t="s">
+      <c r="C13" s="54">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D13" s="54">
+        <v>0</v>
+      </c>
+      <c r="E13" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="43" t="s">
         <v>9</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="Q13" s="8" t="s">
+      <c r="I13" s="11">
+        <v>96.12</v>
+      </c>
+      <c r="J13" s="11">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0.25030000000000002</v>
+      </c>
+      <c r="L13" s="11">
+        <v>-4.9610000000000003</v>
+      </c>
+      <c r="M13" s="45">
+        <v>0.90539999999999998</v>
+      </c>
+      <c r="N13" s="44">
+        <v>5</v>
+      </c>
+      <c r="O13" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="P13" s="44" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q13" s="44" t="s">
+        <v>469</v>
+      </c>
+      <c r="R13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD13" s="9" t="s">
+      <c r="T13" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB13" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="9"/>
+    </row>
+    <row r="14" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="39">
         <v>6</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="6">
         <v>0</v>
       </c>
-      <c r="C14" s="39"/>
+      <c r="C14" s="45">
+        <v>0.14019999999999999</v>
+      </c>
       <c r="D14" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="11" t="s">
+      <c r="F14" s="6">
+        <v>0.29680000000000001</v>
+      </c>
+      <c r="G14" s="45">
+        <v>2.87E-2</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
+      <c r="I14" s="45">
+        <v>94</v>
+      </c>
+      <c r="J14" s="45">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="K14" s="45">
+        <v>0.4002</v>
+      </c>
+      <c r="L14" s="45">
+        <v>10.65</v>
+      </c>
+      <c r="M14" s="45">
+        <v>0.87429999999999997</v>
+      </c>
+      <c r="N14" s="31">
+        <v>6</v>
+      </c>
       <c r="O14" s="39"/>
-      <c r="Q14" s="8" t="s">
+      <c r="P14" s="39"/>
+      <c r="R14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD14" s="9" t="s">
+      <c r="T14" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="AB14" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="9"/>
+    </row>
+    <row r="15" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="39">
         <v>7</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="6">
         <v>0</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="6">
+        <v>1.2999999999999999E-3</v>
+      </c>
       <c r="E15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="11" t="s">
+      <c r="F15" s="6">
+        <v>0.42309999999999998</v>
+      </c>
+      <c r="G15" s="45">
+        <v>0.55889999999999995</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
+      <c r="I15" s="45">
+        <v>95.4</v>
+      </c>
+      <c r="J15" s="45">
+        <v>0.2918</v>
+      </c>
+      <c r="K15" s="45">
+        <v>0.20150000000000001</v>
+      </c>
+      <c r="L15" s="45">
+        <v>-12.89</v>
+      </c>
+      <c r="M15" s="45">
+        <v>0.91559999999999997</v>
+      </c>
+      <c r="N15" s="31">
+        <v>7</v>
+      </c>
       <c r="O15" s="39"/>
-      <c r="Q15" s="8" t="s">
+      <c r="P15" s="39"/>
+      <c r="R15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S15" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD15" s="9" t="s">
+      <c r="T15" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="AB15" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="9"/>
+    </row>
+    <row r="16" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="39">
         <v>8</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="6">
         <v>0</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="6"/>
+      <c r="C16" s="45">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
       <c r="E16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="11" t="s">
+      <c r="F16" s="6">
+        <v>0.46550000000000002</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.85409999999999997</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
+      <c r="I16" s="45">
+        <v>96.47</v>
+      </c>
+      <c r="J16" s="45">
+        <v>0.1207</v>
+      </c>
+      <c r="K16" s="45">
+        <v>0.28410000000000002</v>
+      </c>
+      <c r="L16" s="45">
+        <v>-2.8940000000000001</v>
+      </c>
+      <c r="M16" s="45">
+        <v>0.9556</v>
+      </c>
+      <c r="N16" s="31">
+        <v>8</v>
+      </c>
       <c r="O16" s="39"/>
-      <c r="Q16" s="8" t="s">
+      <c r="P16" s="39"/>
+      <c r="R16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S16" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD16" s="9" t="s">
+      <c r="T16" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB16" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="9"/>
+    </row>
+    <row r="17" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="39">
         <v>9</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="6">
         <v>0</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="11" t="s">
+      <c r="C17" s="45">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="F17" s="6">
+        <v>4.7100000000000003E-2</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.35589999999999999</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
+      <c r="I17" s="45">
+        <v>97</v>
+      </c>
+      <c r="J17" s="45">
+        <v>0.21110000000000001</v>
+      </c>
+      <c r="K17" s="45">
+        <v>0.33310000000000001</v>
+      </c>
+      <c r="L17" s="45">
+        <v>-1.05</v>
+      </c>
+      <c r="M17" s="45">
+        <v>0.97230000000000005</v>
+      </c>
+      <c r="N17" s="31">
+        <v>9</v>
+      </c>
       <c r="O17" s="39"/>
-      <c r="Q17" s="8" t="s">
+      <c r="P17" s="39"/>
+      <c r="R17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S17" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD17" s="9" t="s">
+      <c r="T17" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="AB17" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B19" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B20" s="46" t="s">
-        <v>276</v>
-      </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="45" t="s">
+      <c r="AE17" s="9"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B19" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B20" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="45"/>
-      <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:30" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="M20" s="47"/>
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="1:31" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
@@ -2451,38 +3218,41 @@
         <v>4</v>
       </c>
       <c r="N21" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="O21" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="O21" s="20" t="s">
+      <c r="P21" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="P21" s="38" t="s">
+      <c r="Q21" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>1</v>
       </c>
       <c r="B22" s="11">
         <v>0</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="52" t="s">
+      <c r="E22" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="52" t="s">
+      <c r="F22" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="52" t="s">
+      <c r="G22" s="43" t="s">
         <v>9</v>
       </c>
       <c r="H22" s="11" t="s">
@@ -2503,26 +3273,29 @@
       <c r="M22" s="11">
         <v>0.87339999999999995</v>
       </c>
-      <c r="N22" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="O22" s="53" t="s">
-        <v>278</v>
-      </c>
-      <c r="P22" s="53" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q22" s="8" t="s">
+      <c r="N22" s="44">
+        <v>1</v>
+      </c>
+      <c r="O22" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="P22" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q22" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="R22" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S22" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC22" s="9" t="s">
+      <c r="T22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD22" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="39">
         <v>2</v>
       </c>
@@ -2547,35 +3320,38 @@
       <c r="H23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="42">
+      <c r="I23" s="41">
         <v>87.2</v>
       </c>
-      <c r="J23" s="42">
+      <c r="J23" s="41">
         <v>0.59019999999999995</v>
       </c>
-      <c r="K23" s="42">
+      <c r="K23" s="41">
         <v>0.33429999999999999</v>
       </c>
-      <c r="L23" s="42">
+      <c r="L23" s="41">
         <v>17.87</v>
       </c>
-      <c r="M23" s="42">
+      <c r="M23" s="41">
         <v>0.85460000000000003</v>
       </c>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="8" t="s">
+      <c r="N23" s="45">
+        <v>2</v>
+      </c>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S23" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC23" s="9" t="s">
+      <c r="T23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD23" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="31">
         <v>3</v>
       </c>
@@ -2615,26 +3391,29 @@
       <c r="M24" s="31">
         <v>0.90169999999999995</v>
       </c>
-      <c r="N24" s="31" t="s">
-        <v>277</v>
+      <c r="N24" s="31">
+        <v>3</v>
       </c>
       <c r="O24" s="31" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="P24" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q24" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q24" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="R24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S24" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC24" s="9" t="s">
+      <c r="T24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD24" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="39">
         <v>4</v>
       </c>
@@ -2653,50 +3432,53 @@
       <c r="F25" s="6">
         <v>0.65369999999999995</v>
       </c>
-      <c r="G25" s="42">
+      <c r="G25" s="41">
         <v>7.7000000000000002E-3</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="42">
+      <c r="I25" s="41">
         <v>89.65</v>
       </c>
-      <c r="J25" s="42">
+      <c r="J25" s="41">
         <v>0.38900000000000001</v>
       </c>
-      <c r="K25" s="42">
+      <c r="K25" s="41">
         <v>0.24560000000000001</v>
       </c>
-      <c r="L25" s="42">
+      <c r="L25" s="41">
         <v>20.56</v>
       </c>
-      <c r="M25" s="42">
+      <c r="M25" s="41">
         <v>0.81059999999999999</v>
       </c>
-      <c r="N25" s="39"/>
+      <c r="N25" s="31">
+        <v>4</v>
+      </c>
       <c r="O25" s="39"/>
-      <c r="Q25" s="8" t="s">
+      <c r="P25" s="39"/>
+      <c r="R25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S25" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC25" s="9" t="s">
+      <c r="T25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD25" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="39">
         <v>5</v>
       </c>
       <c r="B26" s="6">
         <v>0</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="41">
         <v>0.40479999999999999</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="41">
         <v>1.2800000000000001E-2</v>
       </c>
       <c r="E26" s="10" t="s">
@@ -2711,41 +3493,44 @@
       <c r="H26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="42">
+      <c r="I26" s="41">
         <v>88.64</v>
       </c>
-      <c r="J26" s="42">
+      <c r="J26" s="41">
         <v>0.21970000000000001</v>
       </c>
-      <c r="K26" s="42">
+      <c r="K26" s="41">
         <v>0.2651</v>
       </c>
-      <c r="L26" s="42">
+      <c r="L26" s="41">
         <v>13.51</v>
       </c>
-      <c r="M26" s="42">
+      <c r="M26" s="41">
         <v>0.89159999999999995</v>
       </c>
-      <c r="N26" s="39"/>
+      <c r="N26" s="31">
+        <v>5</v>
+      </c>
       <c r="O26" s="39"/>
-      <c r="Q26" s="8" t="s">
+      <c r="P26" s="39"/>
+      <c r="R26" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S26" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC26" s="9" t="s">
+      <c r="T26" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD26" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="39">
         <v>6</v>
       </c>
       <c r="B27" s="6">
         <v>0</v>
       </c>
-      <c r="C27" s="42">
+      <c r="C27" s="41">
         <v>0.42</v>
       </c>
       <c r="D27" s="10" t="s">
@@ -2757,40 +3542,43 @@
       <c r="F27" s="6">
         <v>0.53090000000000004</v>
       </c>
-      <c r="G27" s="42">
+      <c r="G27" s="41">
         <v>5.5999999999999999E-3</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="42">
+      <c r="I27" s="41">
         <v>89.78</v>
       </c>
-      <c r="J27" s="42">
+      <c r="J27" s="41">
         <v>0.35170000000000001</v>
       </c>
-      <c r="K27" s="42">
+      <c r="K27" s="41">
         <v>0.19800000000000001</v>
       </c>
-      <c r="L27" s="42">
+      <c r="L27" s="41">
         <v>12.38</v>
       </c>
-      <c r="M27" s="42">
+      <c r="M27" s="41">
         <v>0.85319999999999996</v>
       </c>
-      <c r="N27" s="39"/>
+      <c r="N27" s="31">
+        <v>6</v>
+      </c>
       <c r="O27" s="39"/>
-      <c r="Q27" s="8" t="s">
+      <c r="P27" s="39"/>
+      <c r="R27" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S27" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC27" s="9" t="s">
+      <c r="T27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD27" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="39">
         <v>7</v>
       </c>
@@ -2809,47 +3597,50 @@
       <c r="F28" s="6">
         <v>0.47939999999999999</v>
       </c>
-      <c r="G28" s="42">
+      <c r="G28" s="41">
         <v>1.04E-2</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="42">
+      <c r="I28" s="41">
         <v>90.26</v>
       </c>
-      <c r="J28" s="42">
+      <c r="J28" s="41">
         <v>0.18090000000000001</v>
       </c>
-      <c r="K28" s="42">
+      <c r="K28" s="41">
         <v>0.20300000000000001</v>
       </c>
-      <c r="L28" s="42">
+      <c r="L28" s="41">
         <v>13.31</v>
       </c>
-      <c r="M28" s="42">
+      <c r="M28" s="41">
         <v>0.87260000000000004</v>
       </c>
-      <c r="N28" s="39"/>
+      <c r="N28" s="31">
+        <v>7</v>
+      </c>
       <c r="O28" s="39"/>
-      <c r="Q28" s="8" t="s">
+      <c r="P28" s="39"/>
+      <c r="R28" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S28" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC28" s="9" t="s">
+      <c r="T28" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD28" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="39">
         <v>8</v>
       </c>
       <c r="B29" s="6">
         <v>0</v>
       </c>
-      <c r="C29" s="42">
+      <c r="C29" s="41">
         <v>0.71299999999999997</v>
       </c>
       <c r="D29" s="6">
@@ -2867,41 +3658,44 @@
       <c r="H29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="42">
+      <c r="I29" s="41">
         <v>90.28</v>
       </c>
-      <c r="J29" s="42">
+      <c r="J29" s="41">
         <v>0.16889999999999999</v>
       </c>
-      <c r="K29" s="42">
+      <c r="K29" s="41">
         <v>0.1862</v>
       </c>
-      <c r="L29" s="42">
+      <c r="L29" s="41">
         <v>10.16</v>
       </c>
-      <c r="M29" s="42">
+      <c r="M29" s="41">
         <v>0.87819999999999998</v>
       </c>
-      <c r="N29" s="39"/>
+      <c r="N29" s="31">
+        <v>8</v>
+      </c>
       <c r="O29" s="39"/>
-      <c r="Q29" s="8" t="s">
+      <c r="P29" s="39"/>
+      <c r="R29" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S29" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC29" s="9" t="s">
+      <c r="T29" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD29" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="39">
         <v>9</v>
       </c>
       <c r="B30" s="6">
         <v>0</v>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="41">
         <v>0.79120000000000001</v>
       </c>
       <c r="D30" s="6">
@@ -2919,30 +3713,33 @@
       <c r="H30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I30" s="42">
+      <c r="I30" s="41">
         <v>91.26</v>
       </c>
-      <c r="J30" s="42">
+      <c r="J30" s="41">
         <v>0.2591</v>
       </c>
-      <c r="K30" s="42">
+      <c r="K30" s="41">
         <v>0.105</v>
       </c>
-      <c r="L30" s="42">
+      <c r="L30" s="41">
         <v>10.08</v>
       </c>
-      <c r="M30" s="42">
+      <c r="M30" s="41">
         <v>0.89280000000000004</v>
       </c>
-      <c r="N30" s="39"/>
+      <c r="N30" s="31">
+        <v>9</v>
+      </c>
       <c r="O30" s="39"/>
-      <c r="Q30" s="8" t="s">
+      <c r="P30" s="39"/>
+      <c r="R30" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S30" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC30" s="9" t="s">
+      <c r="T30" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD30" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3020,115 +3817,173 @@
   <dimension ref="A1:A528"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
+      <c r="A1" s="15" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
+      <c r="A2" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="15" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="14" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="14" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="14" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="14" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="14" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="14" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="14" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="14" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="14" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="14" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="14" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+      <c r="A28" s="14" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="14" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="14" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="14" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="14" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="A35" s="14" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
@@ -3137,1465 +3992,2277 @@
       <c r="A37" s="13"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
+      <c r="A38" s="14" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
+      <c r="A39" s="14" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
+      <c r="A40" s="14" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
+      <c r="A41" s="14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
+      <c r="A42" s="14" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
+      <c r="A43" s="14" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
+      <c r="A44" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
+      <c r="A46" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
+      <c r="A47" s="14" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
+      <c r="A48" s="14" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
+      <c r="A49" s="14" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
+      <c r="A50" s="14" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
+      <c r="A52" s="15" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
+      <c r="A53" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
+      <c r="A54" s="7" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
+      <c r="A55" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
+      <c r="A56" s="15" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
+      <c r="A57" s="14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
+      <c r="A59" s="14" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
+      <c r="A60" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
+      <c r="A62" s="14" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
+      <c r="A63" s="14" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
+      <c r="A64" s="14" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
+      <c r="A65" s="14" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
+      <c r="A66" s="14" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
+      <c r="A68" s="14" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
+      <c r="A69" s="14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
+      <c r="A71" s="14" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
+      <c r="A73" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
+      <c r="A74" s="14" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
+      <c r="A75" s="14" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
+      <c r="A76" s="14" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
+      <c r="A77" s="14" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
+      <c r="A79" s="14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
+      <c r="A80" s="14" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
+      <c r="A81" s="14" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
+      <c r="A82" s="14" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
+      <c r="A83" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
+      <c r="A84" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
+      <c r="A85" s="14" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
+      <c r="A86" s="14" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="14"/>
+      <c r="A87" s="14" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="14"/>
+      <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
+      <c r="A90" s="14" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
+      <c r="A91" s="14" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="14"/>
+      <c r="A92" s="14" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="13"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="14"/>
+      <c r="A94" s="14" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="14"/>
+      <c r="A95" s="14" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="14"/>
+      <c r="A96" s="14" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="14"/>
+      <c r="A97" s="14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="14"/>
+      <c r="A98" s="14" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="14"/>
+      <c r="A99" s="14" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="14"/>
+      <c r="A100" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="14"/>
+      <c r="A102" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="14"/>
+      <c r="A103" s="14" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="14"/>
+      <c r="A104" s="14" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="14"/>
+      <c r="A105" s="14" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="14"/>
+      <c r="A106" s="14" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="13"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="15"/>
+      <c r="A108" s="15" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="7"/>
+      <c r="A109" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="7"/>
+      <c r="A110" s="7" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="7"/>
+      <c r="A111" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="15"/>
+      <c r="A112" s="15" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="14"/>
+      <c r="A113" s="14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="13"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="14"/>
+      <c r="A115" s="14" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="14"/>
+      <c r="A116" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="13"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="14"/>
+      <c r="A118" s="14" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="14"/>
+      <c r="A119" s="14" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="14"/>
+      <c r="A120" s="14" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="14"/>
+      <c r="A121" s="14" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="14"/>
+      <c r="A122" s="14" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="13"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="14"/>
+      <c r="A124" s="14" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="14"/>
+      <c r="A125" s="14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="13"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="14"/>
+      <c r="A127" s="14" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="13"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="14"/>
+      <c r="A129" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="14"/>
+      <c r="A130" s="14" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="14"/>
+      <c r="A131" s="14" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="14"/>
+      <c r="A132" s="14" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="14"/>
+      <c r="A133" s="14" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="13"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="14"/>
+      <c r="A135" s="14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="14"/>
+      <c r="A136" s="14" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="14"/>
+      <c r="A137" s="14" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="14"/>
+      <c r="A138" s="14" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="14"/>
+      <c r="A139" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="14"/>
+      <c r="A140" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="14"/>
+      <c r="A141" s="14" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="14"/>
+      <c r="A142" s="14" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="14"/>
+      <c r="A143" s="14" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="13"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="14"/>
+      <c r="A145" s="14" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="14"/>
+      <c r="A146" s="14" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="14"/>
+      <c r="A147" s="14" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="14"/>
+      <c r="A148" s="14" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="13"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="14"/>
+      <c r="A150" s="14" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="14"/>
+      <c r="A151" s="14" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="14"/>
+      <c r="A152" s="14" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="14"/>
+      <c r="A153" s="14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="14"/>
+      <c r="A154" s="14" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="14"/>
+      <c r="A155" s="14" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="14"/>
+      <c r="A156" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="13"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="14"/>
+      <c r="A158" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="14"/>
+      <c r="A159" s="14" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="14"/>
+      <c r="A160" s="14" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="14"/>
+      <c r="A161" s="14" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="14"/>
+      <c r="A162" s="14" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="13"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="15"/>
+      <c r="A164" s="15" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="7"/>
+      <c r="A165" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="7"/>
+      <c r="A166" s="7" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="7"/>
+      <c r="A167" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="15"/>
+      <c r="A168" s="15" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="14"/>
+      <c r="A169" s="14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="13"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="14"/>
+      <c r="A171" s="14" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="14"/>
+      <c r="A172" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="13"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="14"/>
+      <c r="A174" s="14" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="14"/>
+      <c r="A175" s="14" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="14"/>
+      <c r="A176" s="14" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="14"/>
+      <c r="A177" s="14" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="14"/>
+      <c r="A178" s="14" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="13"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="14"/>
+      <c r="A180" s="14" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="14"/>
+      <c r="A181" s="14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="13"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="14"/>
+      <c r="A183" s="14" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="13"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="14"/>
+      <c r="A185" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="14"/>
+      <c r="A186" s="14" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="14"/>
+      <c r="A187" s="14" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="14"/>
+      <c r="A188" s="14" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="14"/>
+      <c r="A189" s="14" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="14"/>
+      <c r="A190" s="14" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="13"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="14"/>
+      <c r="A192" s="14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="14"/>
+      <c r="A193" s="14" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="14"/>
+      <c r="A194" s="14" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="14"/>
+      <c r="A195" s="14" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="14"/>
+      <c r="A196" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="14"/>
+      <c r="A197" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="14"/>
+      <c r="A198" s="14" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="14"/>
+      <c r="A199" s="14" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="14"/>
+      <c r="A200" s="14" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="13"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="14"/>
+      <c r="A202" s="14" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="14"/>
+      <c r="A203" s="14" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="14"/>
+      <c r="A204" s="14" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="14"/>
+      <c r="A205" s="14" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="14"/>
+      <c r="A206" s="14" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="13"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="14"/>
+      <c r="A208" s="14" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="14"/>
+      <c r="A209" s="14" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="14"/>
+      <c r="A210" s="14" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="14"/>
+      <c r="A211" s="14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="14"/>
+      <c r="A212" s="14" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="14"/>
+      <c r="A213" s="14" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="14"/>
+      <c r="A214" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="13"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="14"/>
+      <c r="A216" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="14"/>
+      <c r="A217" s="14" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="14"/>
+      <c r="A218" s="14" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="14"/>
+      <c r="A219" s="14" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="14"/>
+      <c r="A220" s="14" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="13"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="15"/>
+      <c r="A222" s="15" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="7"/>
+      <c r="A223" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="7"/>
+      <c r="A224" s="7" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="7"/>
+      <c r="A225" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="15"/>
+      <c r="A226" s="15" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="14"/>
+      <c r="A227" s="14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="13"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="14"/>
+      <c r="A229" s="14" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="14"/>
+      <c r="A230" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="13"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="14"/>
+      <c r="A232" s="14" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="14"/>
+      <c r="A233" s="14" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="14"/>
+      <c r="A234" s="14" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="14"/>
+      <c r="A235" s="14" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="14"/>
+      <c r="A236" s="14" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="13"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="14"/>
+      <c r="A238" s="14" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="14"/>
+      <c r="A239" s="14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="13"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="14"/>
+      <c r="A241" s="14" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="13"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="14"/>
+      <c r="A243" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="14"/>
+      <c r="A244" s="14" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="14"/>
+      <c r="A245" s="14" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="14"/>
+      <c r="A246" s="14" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="14"/>
+      <c r="A247" s="14" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="14"/>
+      <c r="A248" s="14" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="13"/>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="14"/>
+      <c r="A250" s="14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="14"/>
+      <c r="A251" s="14" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="14"/>
+      <c r="A252" s="14" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="14"/>
+      <c r="A253" s="14" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="14"/>
+      <c r="A254" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="14"/>
+      <c r="A255" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="14"/>
+      <c r="A256" s="14" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="14"/>
+      <c r="A257" s="14" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="14"/>
+      <c r="A258" s="14" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="13"/>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="14"/>
+      <c r="A260" s="14" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="14"/>
+      <c r="A261" s="14" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="14"/>
+      <c r="A262" s="14" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="14"/>
+      <c r="A263" s="14" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="14"/>
+      <c r="A264" s="14" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="13"/>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="14"/>
+      <c r="A266" s="14" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="14"/>
+      <c r="A267" s="14" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="14"/>
+      <c r="A268" s="14" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="14"/>
+      <c r="A269" s="14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="14"/>
+      <c r="A270" s="14" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="14"/>
+      <c r="A271" s="14" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="14"/>
+      <c r="A272" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="13"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="14"/>
+      <c r="A274" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="14"/>
+      <c r="A275" s="14" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="14"/>
+      <c r="A276" s="14" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="14"/>
+      <c r="A277" s="14" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="14"/>
+      <c r="A278" s="14" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="13"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="15"/>
+      <c r="A280" s="15" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="7"/>
+      <c r="A281" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="7"/>
+      <c r="A282" s="7" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="7"/>
+      <c r="A283" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="15"/>
+      <c r="A284" s="15" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="14"/>
+      <c r="A285" s="14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="13"/>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="14"/>
+      <c r="A287" s="14" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="14"/>
+      <c r="A288" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="13"/>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="14"/>
+      <c r="A290" s="14" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="14"/>
+      <c r="A291" s="14" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="14"/>
+      <c r="A292" s="14" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="14"/>
+      <c r="A293" s="14" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="14"/>
+      <c r="A294" s="14" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="13"/>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="14"/>
+      <c r="A296" s="14" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="14"/>
+      <c r="A297" s="14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="13"/>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="14"/>
+      <c r="A299" s="14" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="13"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="14"/>
+      <c r="A301" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="14"/>
+      <c r="A302" s="14" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="14"/>
+      <c r="A303" s="14" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="14"/>
+      <c r="A304" s="14" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="14"/>
+      <c r="A305" s="14" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="14"/>
+      <c r="A306" s="14" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="14"/>
+      <c r="A307" s="14" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="13"/>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="14"/>
+      <c r="A309" s="14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="14"/>
+      <c r="A310" s="14" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="14"/>
+      <c r="A311" s="14" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="14"/>
+      <c r="A312" s="14" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="14"/>
+      <c r="A313" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="14"/>
+      <c r="A314" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="14"/>
+      <c r="A315" s="14" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="14"/>
+      <c r="A316" s="14" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="14"/>
+      <c r="A317" s="14" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="13"/>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="14"/>
+      <c r="A319" s="14" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="14"/>
+      <c r="A320" s="14" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="14"/>
+      <c r="A321" s="14" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="14"/>
+      <c r="A322" s="14" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="14"/>
+      <c r="A323" s="14" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="14"/>
+      <c r="A324" s="14" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="13"/>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="14"/>
+      <c r="A326" s="14" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="14"/>
+      <c r="A327" s="14" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="14"/>
+      <c r="A328" s="14" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="14"/>
+      <c r="A329" s="14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="14"/>
+      <c r="A330" s="14" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="14"/>
+      <c r="A331" s="14" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="14"/>
+      <c r="A332" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="13"/>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="14"/>
+      <c r="A334" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="14"/>
+      <c r="A335" s="14" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="14"/>
+      <c r="A336" s="14" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="14"/>
+      <c r="A337" s="14" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="14"/>
+      <c r="A338" s="14" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="13"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="15"/>
+      <c r="A340" s="15" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="7"/>
+      <c r="A341" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="7"/>
+      <c r="A342" s="7" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="7"/>
+      <c r="A343" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="15"/>
+      <c r="A344" s="15" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="14"/>
+      <c r="A345" s="14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="13"/>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="14"/>
+      <c r="A347" s="14" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="14"/>
+      <c r="A348" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="13"/>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="14"/>
+      <c r="A350" s="14" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="14"/>
+      <c r="A351" s="14" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="14"/>
+      <c r="A352" s="14" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="14"/>
+      <c r="A353" s="14" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="14"/>
+      <c r="A354" s="14" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="13"/>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="14"/>
+      <c r="A356" s="14" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="14"/>
+      <c r="A357" s="14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="13"/>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="14"/>
+      <c r="A359" s="14" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="13"/>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="14"/>
+      <c r="A361" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="14"/>
+      <c r="A362" s="14" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="14"/>
+      <c r="A363" s="14" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="14"/>
+      <c r="A364" s="14" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="14"/>
+      <c r="A365" s="14" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="14"/>
+      <c r="A366" s="14" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="14"/>
+      <c r="A367" s="14" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="13"/>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="14"/>
+      <c r="A369" s="14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="14"/>
+      <c r="A370" s="14" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="14"/>
+      <c r="A371" s="14" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="14"/>
+      <c r="A372" s="14" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="14"/>
+      <c r="A373" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="14"/>
+      <c r="A374" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="14"/>
+      <c r="A375" s="14" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="14"/>
+      <c r="A376" s="14" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="14"/>
+      <c r="A377" s="14" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="13"/>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="14"/>
+      <c r="A379" s="14" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="14"/>
+      <c r="A380" s="14" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="14"/>
+      <c r="A381" s="14" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="14"/>
+      <c r="A382" s="14" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="14"/>
+      <c r="A383" s="14" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="14"/>
+      <c r="A384" s="14" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="13"/>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="14"/>
+      <c r="A386" s="14" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="14"/>
+      <c r="A387" s="14" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="14"/>
+      <c r="A388" s="14" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="14"/>
+      <c r="A389" s="14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="14"/>
+      <c r="A390" s="14" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="14"/>
+      <c r="A391" s="14" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" s="14"/>
+      <c r="A392" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="13"/>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="14"/>
+      <c r="A394" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="14"/>
+      <c r="A395" s="14" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="14"/>
+      <c r="A396" s="14" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="14"/>
+      <c r="A397" s="14" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="14"/>
+      <c r="A398" s="14" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="13"/>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="15"/>
+      <c r="A400" s="15" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="7"/>
+      <c r="A401" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="7"/>
+      <c r="A402" s="7" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="7"/>
+      <c r="A403" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="15"/>
+      <c r="A404" s="15" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="14"/>
+      <c r="A405" s="14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="13"/>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="14"/>
+      <c r="A407" s="14" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="14"/>
+      <c r="A408" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="13"/>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="14"/>
+      <c r="A410" s="14" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="14"/>
+      <c r="A411" s="14" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="14"/>
+      <c r="A412" s="14" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="14"/>
+      <c r="A413" s="14" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="14"/>
+      <c r="A414" s="14" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="13"/>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" s="14"/>
+      <c r="A416" s="14" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" s="14"/>
+      <c r="A417" s="14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="13"/>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" s="14"/>
+      <c r="A419" s="14" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" s="13"/>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="14"/>
+      <c r="A421" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" s="14"/>
+      <c r="A422" s="14" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="14"/>
+      <c r="A423" s="14" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="14"/>
+      <c r="A424" s="14" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="14"/>
+      <c r="A425" s="14" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="14"/>
+      <c r="A426" s="14" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="14"/>
+      <c r="A427" s="14" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" s="14"/>
+      <c r="A428" s="14" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="13"/>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="14"/>
+      <c r="A430" s="14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="14"/>
+      <c r="A431" s="14" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="14"/>
+      <c r="A432" s="14" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="14"/>
+      <c r="A433" s="14" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" s="14"/>
+      <c r="A434" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="14"/>
+      <c r="A435" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="14"/>
+      <c r="A436" s="14" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="14"/>
+      <c r="A437" s="14" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" s="14"/>
+      <c r="A438" s="14" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="13"/>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" s="14"/>
+      <c r="A440" s="14" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" s="14"/>
+      <c r="A441" s="14" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" s="14"/>
+      <c r="A442" s="14" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" s="14"/>
+      <c r="A443" s="14" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" s="14"/>
+      <c r="A444" s="14" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="14"/>
+      <c r="A445" s="14" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" s="14"/>
+      <c r="A446" s="14" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="13"/>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" s="14"/>
+      <c r="A448" s="14" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="14"/>
+      <c r="A449" s="14" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="14"/>
+      <c r="A450" s="14" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" s="14"/>
+      <c r="A451" s="14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" s="14"/>
+      <c r="A452" s="14" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" s="14"/>
+      <c r="A453" s="14" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" s="14"/>
+      <c r="A454" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" s="13"/>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" s="14"/>
+      <c r="A456" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457" s="14"/>
+      <c r="A457" s="14" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458" s="14"/>
+      <c r="A458" s="14" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" s="14"/>
+      <c r="A459" s="14" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460" s="14"/>
+      <c r="A460" s="14" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" s="13"/>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" s="15"/>
+      <c r="A462" s="15" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463" s="7"/>
+      <c r="A463" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464" s="7"/>
+      <c r="A464" s="7" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465" s="7"/>
+      <c r="A465" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466" s="15"/>
+      <c r="A466" s="15" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467" s="14"/>
+      <c r="A467" s="14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="13"/>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469" s="14"/>
+      <c r="A469" s="14" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" s="14"/>
+      <c r="A470" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="13"/>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" s="14"/>
+      <c r="A472" s="14" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473" s="14"/>
+      <c r="A473" s="14" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474" s="14"/>
+      <c r="A474" s="14" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475" s="14"/>
+      <c r="A475" s="14" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476" s="14"/>
+      <c r="A476" s="14" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" s="13"/>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" s="14"/>
+      <c r="A478" s="14" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479" s="14"/>
+      <c r="A479" s="14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" s="13"/>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481" s="14"/>
+      <c r="A481" s="14" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" s="13"/>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483" s="14"/>
+      <c r="A483" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484" s="14"/>
+      <c r="A484" s="14" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485" s="14"/>
+      <c r="A485" s="14" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486" s="14"/>
+      <c r="A486" s="14" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487" s="14"/>
+      <c r="A487" s="14" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488" s="14"/>
+      <c r="A488" s="14" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489" s="14"/>
+      <c r="A489" s="14" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490" s="14"/>
+      <c r="A490" s="14" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491" s="14"/>
+      <c r="A491" s="14" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" s="13"/>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493" s="14"/>
+      <c r="A493" s="14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494" s="14"/>
+      <c r="A494" s="14" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495" s="14"/>
+      <c r="A495" s="14" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496" s="14"/>
+      <c r="A496" s="14" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" s="14"/>
+      <c r="A497" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" s="14"/>
+      <c r="A498" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="14"/>
+      <c r="A499" s="14" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" s="14"/>
+      <c r="A500" s="14" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" s="14"/>
+      <c r="A501" s="14" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" s="13"/>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" s="14"/>
+      <c r="A503" s="14" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" s="14"/>
+      <c r="A504" s="14" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="14"/>
+      <c r="A505" s="14" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506" s="14"/>
+      <c r="A506" s="14" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" s="14"/>
+      <c r="A507" s="14" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508" s="14"/>
+      <c r="A508" s="14" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" s="14"/>
+      <c r="A509" s="14" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" s="14"/>
+      <c r="A510" s="14" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" s="13"/>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512" s="14"/>
+      <c r="A512" s="14" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="14"/>
+      <c r="A513" s="14" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" s="14"/>
+      <c r="A514" s="14" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="14"/>
+      <c r="A515" s="14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="14"/>
+      <c r="A516" s="14" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="14"/>
+      <c r="A517" s="14" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" s="14"/>
+      <c r="A518" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" s="13"/>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" s="14"/>
+      <c r="A520" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" s="14"/>
+      <c r="A521" s="14" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522" s="14"/>
+      <c r="A522" s="14" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523" s="14"/>
+      <c r="A523" s="14" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A524" s="14"/>
+      <c r="A524" s="14" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" s="16"/>
@@ -4611,7 +6278,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4627,17 +6294,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -4647,7 +6314,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -4657,12 +6324,12 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -4670,12 +6337,12 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -4683,27 +6350,27 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -4711,12 +6378,12 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -4724,7 +6391,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -4732,22 +6399,22 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
@@ -4755,47 +6422,47 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
@@ -4806,37 +6473,37 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
@@ -4849,22 +6516,22 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
@@ -4872,7 +6539,7 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
@@ -4882,7 +6549,7 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
@@ -4892,12 +6559,12 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
@@ -4905,12 +6572,12 @@
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
@@ -4918,27 +6585,27 @@
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
@@ -4946,12 +6613,12 @@
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
@@ -4959,7 +6626,7 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
@@ -4967,27 +6634,27 @@
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
@@ -4995,47 +6662,47 @@
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
@@ -5043,22 +6710,22 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
@@ -5066,37 +6733,37 @@
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
@@ -5109,22 +6776,22 @@
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
@@ -5132,7 +6799,7 @@
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
@@ -5142,7 +6809,7 @@
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
@@ -5152,12 +6819,12 @@
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
@@ -5165,12 +6832,12 @@
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
@@ -5178,27 +6845,27 @@
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
@@ -5206,12 +6873,12 @@
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
@@ -5219,7 +6886,7 @@
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
@@ -5227,27 +6894,27 @@
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
@@ -5255,47 +6922,47 @@
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
@@ -5303,22 +6970,22 @@
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
@@ -5326,37 +6993,37 @@
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="14" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="14" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
@@ -5369,22 +7036,22 @@
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="14" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="14" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="14" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
@@ -5392,7 +7059,7 @@
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="15" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
@@ -5402,7 +7069,7 @@
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
@@ -5412,12 +7079,12 @@
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="15" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
@@ -5425,12 +7092,12 @@
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
@@ -5438,27 +7105,27 @@
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="14" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="14" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="14" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
@@ -5466,12 +7133,12 @@
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="14" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="14" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
@@ -5479,7 +7146,7 @@
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
@@ -5487,32 +7154,32 @@
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="14" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="14" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="14" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="14" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="14" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
@@ -5520,47 +7187,47 @@
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="14" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="14" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="14" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="14" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="14" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="14" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="14" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="14" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="14" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
@@ -5568,27 +7235,27 @@
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="14" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="14" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="14" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="14" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="14" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
@@ -5596,37 +7263,37 @@
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="14" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="14" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="14" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="14" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="14" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="14" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="14" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
@@ -5639,22 +7306,22 @@
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="14" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="14" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="14" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="14" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
@@ -5662,7 +7329,7 @@
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="15" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
@@ -5672,7 +7339,7 @@
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
@@ -5682,12 +7349,12 @@
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="15" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
@@ -5695,12 +7362,12 @@
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
@@ -5708,27 +7375,27 @@
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="14" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="14" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="14" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
@@ -5736,12 +7403,12 @@
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="14" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="14" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
@@ -5749,7 +7416,7 @@
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="14" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
@@ -5757,32 +7424,32 @@
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="14" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="14" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="14" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="14" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="14" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
@@ -5790,47 +7457,47 @@
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="14" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="14" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="14" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="14" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="14" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="14" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="14" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="14" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
@@ -5838,27 +7505,27 @@
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="14" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="14" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="14" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="14" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="14" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
@@ -5866,37 +7533,37 @@
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="14" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="14" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="14" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="14" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="14" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="14" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="14" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
@@ -5909,22 +7576,22 @@
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="14" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="14" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="14" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="14" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
@@ -5932,7 +7599,7 @@
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="15" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
@@ -5942,7 +7609,7 @@
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
@@ -5952,12 +7619,12 @@
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="15" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
@@ -5965,12 +7632,12 @@
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
@@ -5978,27 +7645,27 @@
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="14" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="14" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="14" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
@@ -6006,12 +7673,12 @@
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="14" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="14" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
@@ -6019,7 +7686,7 @@
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="14" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
@@ -6027,37 +7694,37 @@
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="14" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="14" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="14" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="14" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="14" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="14" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
@@ -6065,47 +7732,47 @@
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="14" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="14" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="14" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="14" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="14" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="14" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="14" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="14" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="14" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
@@ -6113,32 +7780,32 @@
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="14" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="14" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="14" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="14" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="14" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="14" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
@@ -6146,37 +7813,37 @@
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="14" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="14" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="14" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="14" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="14" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="14" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="14" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
@@ -6189,22 +7856,22 @@
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="14" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="14" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="14" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="14" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
@@ -6212,7 +7879,7 @@
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="15" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
@@ -6222,7 +7889,7 @@
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
@@ -6232,12 +7899,12 @@
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="15" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
@@ -6245,12 +7912,12 @@
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
@@ -6258,27 +7925,27 @@
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="14" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="14" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="14" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
@@ -6286,12 +7953,12 @@
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="14" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="14" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
@@ -6299,7 +7966,7 @@
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="14" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
@@ -6307,37 +7974,37 @@
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="14" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="14" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="14" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="14" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="14" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="14" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
@@ -6345,47 +8012,47 @@
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="14" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="14" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="14" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="14" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="14" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="14" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="14" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="14" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="14" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
@@ -6393,32 +8060,32 @@
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="14" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="14" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="14" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="14" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="14" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="14" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
@@ -6426,37 +8093,37 @@
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="14" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="14" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="14" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="14" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="14" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="14" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="14" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
@@ -6469,22 +8136,22 @@
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="14" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="14" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="14" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="14" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
@@ -6492,7 +8159,7 @@
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="15" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
@@ -6502,7 +8169,7 @@
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
@@ -6512,12 +8179,12 @@
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="15" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
@@ -6525,12 +8192,12 @@
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
@@ -6538,27 +8205,27 @@
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="14" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="14" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="14" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
@@ -6566,12 +8233,12 @@
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="14" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="14" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
@@ -6579,7 +8246,7 @@
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="14" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
@@ -6587,42 +8254,42 @@
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="14" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="14" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="14" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="14" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="14" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="14" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
@@ -6630,47 +8297,47 @@
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="14" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="14" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="14" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="14" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="14" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="14" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="14" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="14" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="14" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
@@ -6678,37 +8345,37 @@
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="14" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="14" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="14" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="14" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="14" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="14" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="14" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
@@ -6716,37 +8383,37 @@
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="14" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="14" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="14" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="14" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="14" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" s="14" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" s="14" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
@@ -6759,22 +8426,22 @@
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="14" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="14" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" s="14" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="14" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
@@ -6782,7 +8449,7 @@
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" s="15" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
@@ -6792,7 +8459,7 @@
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
@@ -6802,12 +8469,12 @@
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="15" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
@@ -6815,12 +8482,12 @@
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
@@ -6828,27 +8495,27 @@
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="14" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="14" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" s="14" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
@@ -6856,12 +8523,12 @@
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" s="14" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="14" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
@@ -6869,7 +8536,7 @@
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" s="14" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
@@ -6877,47 +8544,47 @@
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="14" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="14" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="14" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="14" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="14" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="14" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" s="14" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" s="14" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
@@ -6925,47 +8592,47 @@
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="14" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="14" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" s="14" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" s="14" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="14" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="14" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="14" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" s="14" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" s="14" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
@@ -6973,42 +8640,42 @@
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="14" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" s="14" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" s="14" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="14" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="14" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="14" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" s="14" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" s="14" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
@@ -7016,37 +8683,37 @@
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" s="14" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" s="14" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" s="14" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="14" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" s="14" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" s="14" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" s="14" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
@@ -7059,22 +8726,22 @@
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="14" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="14" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" s="14" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" s="14" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">

--- a/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/4_wy2016-2018/4_fTHg Model Results.xlsx
+++ b/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/4_wy2016-2018/4_fTHg Model Results.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slrose\R\2018_CCSB_LoadsData_WY2010-2017\Model Stats_rloadest\4_wy2016-2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A35E4E-ABA7-4DCF-AD79-83EC1B3A1505}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731B8989-49D2-42CB-8921-7A1619471FFF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28995" yWindow="12915" windowWidth="15285" windowHeight="11385" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fTHg wy2016-18 Model Results" sheetId="2" r:id="rId1"/>
-    <sheet name="Outlet" sheetId="5" r:id="rId2"/>
+    <sheet name="Outlet_30ct" sheetId="5" r:id="rId2"/>
     <sheet name="Rumsey" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="469">
   <si>
     <t>Model #</t>
   </si>
@@ -906,60 +906,12 @@
     <t>Station: CCSB-Yolo</t>
   </si>
   <si>
-    <t xml:space="preserve">           Number of Observations: 31</t>
-  </si>
-  <si>
-    <t>Number of Uncensored Observations: 31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           Center of Decimal Time: 2016.949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                  Center of ln(Q): 5.555</t>
-  </si>
-  <si>
     <t xml:space="preserve">                 Period of record: 2016-01-20 to 2018-04-08</t>
   </si>
   <si>
-    <t>(Intercept)   -5.762    0.13576  -42.44       0</t>
-  </si>
-  <si>
-    <t>lnQ            1.013    0.05731   17.67       0</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.4413</t>
-  </si>
-  <si>
-    <t>R-squared: 91.5 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 76.42 on 1 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.018</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.5146</t>
-  </si>
-  <si>
-    <t>Est   0   0 0.01 0.06 0.18 0.21 0.22</t>
-  </si>
-  <si>
     <t>Obs   0   0 0.01 0.06 0.17 0.28 0.31</t>
   </si>
   <si>
-    <t xml:space="preserve"> Bp: -6.67 percent</t>
-  </si>
-  <si>
-    <t>PLR: 0.9333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.8809</t>
-  </si>
-  <si>
     <t>&gt; fTHg_Outflowm2 &lt;- loadReg(fTHg ~model(2), data = fTHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
   </si>
   <si>
@@ -969,45 +921,6 @@
     <t>&gt; fTHg_Outflowm2</t>
   </si>
   <si>
-    <t>(Intercept) -5.92697    0.15328 -38.669  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ          1.01266    0.05455  18.562  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ2         0.02939    0.01469   2.001  0.0418</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.3999</t>
-  </si>
-  <si>
-    <t>R-squared: 92.56 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 80.57 on 2 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.0787</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.6216</t>
-  </si>
-  <si>
-    <t>Est   0   0 0.01 0.06 0.23 0.28 0.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: 9.975 percent</t>
-  </si>
-  <si>
-    <t>PLR: 1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.887</t>
-  </si>
-  <si>
     <t>&gt; fTHg_Outflowm3 &lt;- loadReg(fTHg ~model(3), data = fTHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
   </si>
   <si>
@@ -1017,54 +930,6 @@
     <t>&gt; fTHg_Outflowm3</t>
   </si>
   <si>
-    <t>(Intercept)  -5.9172    0.12255 -48.284   0e+00</t>
-  </si>
-  <si>
-    <t>lnQ           1.0117    0.04837  20.919   0e+00</t>
-  </si>
-  <si>
-    <t>DECTIME      -0.5838    0.16370  -3.566   7e-04</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.3143</t>
-  </si>
-  <si>
-    <t>R-squared: 94.16 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 88.03 on 2 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.6102</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.2913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        VIF</t>
-  </si>
-  <si>
-    <t>lnQ       1</t>
-  </si>
-  <si>
-    <t>DECTIME   1</t>
-  </si>
-  <si>
-    <t>Est   0   0 0.01 0.06 0.13 0.15 0.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: -20.03 percent</t>
-  </si>
-  <si>
-    <t>PLR: 0.7997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.7716</t>
-  </si>
-  <si>
     <t>&gt; fTHg_Outflowm4 &lt;- loadReg(fTHg ~model(4), data = fTHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
   </si>
   <si>
@@ -1074,57 +939,6 @@
     <t>&gt; fTHg_Outflowm4</t>
   </si>
   <si>
-    <t>(Intercept)  -6.5887    0.58564 -11.2503  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ           0.9926    0.06092  16.2948  0.0000</t>
-  </si>
-  <si>
-    <t>sin.DECTIME   0.3843    0.54669   0.7029  0.4534</t>
-  </si>
-  <si>
-    <t>cos.DECTIME   1.1060    0.52815   2.0941  0.0308</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.359</t>
-  </si>
-  <si>
-    <t>R-squared: 93.56 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 85.03 on 3 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.0546</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.3204</t>
-  </si>
-  <si>
-    <t>lnQ         1.389</t>
-  </si>
-  <si>
-    <t>sin.DECTIME 4.070</t>
-  </si>
-  <si>
-    <t>cos.DECTIME 3.646</t>
-  </si>
-  <si>
-    <t>Est   0   0 0.01 0.06 0.21 0.23 0.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: 0.9865 percent</t>
-  </si>
-  <si>
-    <t>PLR: 1.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.9151</t>
-  </si>
-  <si>
     <t>&gt; fTHg_Outflowm5 &lt;- loadReg(fTHg ~model(5), data = fTHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
   </si>
   <si>
@@ -1134,57 +948,6 @@
     <t>&gt; fTHg_Outflowm5</t>
   </si>
   <si>
-    <t>(Intercept)  -6.1744    0.12331 -50.074   0e+00</t>
-  </si>
-  <si>
-    <t>lnQ           1.0116    0.04015  25.195   0e+00</t>
-  </si>
-  <si>
-    <t>lnQ2          0.0408    0.01105   3.692   4e-04</t>
-  </si>
-  <si>
-    <t>DECTIME      -0.6904    0.13892  -4.970   0e+00</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.2166</t>
-  </si>
-  <si>
-    <t>R-squared: 96.12 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 100.7 on 3 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.096</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.2503</t>
-  </si>
-  <si>
-    <t>lnQ     1.000</t>
-  </si>
-  <si>
-    <t>lnQ2    1.045</t>
-  </si>
-  <si>
-    <t>DECTIME 1.045</t>
-  </si>
-  <si>
-    <t>Est   0   0 0.01 0.06 0.17 0.21 0.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: -4.961 percent</t>
-  </si>
-  <si>
-    <t>PLR: 0.9504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.9054</t>
-  </si>
-  <si>
     <t>&gt; fTHg_Outflowm6 &lt;- loadReg(fTHg ~model(6), data = fTHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
   </si>
   <si>
@@ -1194,63 +957,6 @@
     <t>&gt; fTHg_Outflowm6</t>
   </si>
   <si>
-    <t>(Intercept) -6.77018    0.59114 -11.4528  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ          0.98369    0.06029  16.3161  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ2         0.02046    0.01488   1.3751  0.1402</t>
-  </si>
-  <si>
-    <t>sin.DECTIME  0.52817    0.54798   0.9639  0.2968</t>
-  </si>
-  <si>
-    <t>cos.DECTIME  1.08308    0.51992   2.0832  0.0287</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.3476</t>
-  </si>
-  <si>
-    <t>R-squared: 94 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 87.21 on 4 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.0456</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.4002</t>
-  </si>
-  <si>
-    <t>lnQ         1.405</t>
-  </si>
-  <si>
-    <t>lnQ2        1.181</t>
-  </si>
-  <si>
-    <t>sin.DECTIME 4.224</t>
-  </si>
-  <si>
-    <t>cos.DECTIME 3.649</t>
-  </si>
-  <si>
-    <t>Est   0   0 0.01 0.06 0.24 0.27 0.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: 10.65 percent</t>
-  </si>
-  <si>
-    <t>PLR: 1.106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.8743</t>
-  </si>
-  <si>
     <t>&gt; fTHg_Outflowm7 &lt;- loadReg(fTHg ~model(7), data = fTHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
   </si>
   <si>
@@ -1260,63 +966,6 @@
     <t>&gt; fTHg_Outflowm7</t>
   </si>
   <si>
-    <t>(Intercept)  -5.8509    0.55414 -10.5586  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ           1.0368    0.05424  19.1133  0.0000</t>
-  </si>
-  <si>
-    <t>DECTIME      -0.5580    0.17324  -3.2208  0.0013</t>
-  </si>
-  <si>
-    <t>sin.DECTIME  -0.3900    0.52880  -0.7374  0.4231</t>
-  </si>
-  <si>
-    <t>cos.DECTIME   0.2803    0.52228   0.5368  0.5589</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.2665</t>
-  </si>
-  <si>
-    <t>R-squared: 95.4 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 95.44 on 4 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.2918</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.2015</t>
-  </si>
-  <si>
-    <t>lnQ         1.483</t>
-  </si>
-  <si>
-    <t>DECTIME     1.321</t>
-  </si>
-  <si>
-    <t>sin.DECTIME 5.130</t>
-  </si>
-  <si>
-    <t>cos.DECTIME 4.803</t>
-  </si>
-  <si>
-    <t>Est   0   0 0.01 0.06 0.15 0.21 0.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: -12.89 percent</t>
-  </si>
-  <si>
-    <t>PLR: 0.8711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.9156</t>
-  </si>
-  <si>
     <t>&gt; fTHg_Outflowm8 &lt;- loadReg(fTHg ~model(8), data = fTHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
   </si>
   <si>
@@ -1326,69 +975,9 @@
     <t>&gt; fTHg_Outflowm8</t>
   </si>
   <si>
-    <t>(Intercept) -5.99776    0.49754 -12.0548  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ          1.03107    0.04847  21.2730  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ2         0.03319    0.01202   2.7611  0.0041</t>
-  </si>
-  <si>
-    <t>DECTIME     -0.66960    0.15985  -4.1888  0.0000</t>
-  </si>
-  <si>
-    <t>sin.DECTIME -0.31133    0.47294  -0.6583  0.4655</t>
-  </si>
-  <si>
-    <t>cos.DECTIME  0.07797    0.47198   0.1652  0.8541</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.2124</t>
-  </si>
-  <si>
-    <t>R-squared: 96.47 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 103.7 on 5 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.1207</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.2841</t>
-  </si>
-  <si>
-    <t>lnQ         1.486</t>
-  </si>
-  <si>
     <t>lnQ2        1.261</t>
   </si>
   <si>
-    <t>DECTIME     1.411</t>
-  </si>
-  <si>
-    <t>sin.DECTIME 5.149</t>
-  </si>
-  <si>
-    <t>cos.DECTIME 4.922</t>
-  </si>
-  <si>
-    <t>Est   0   0 0.01 0.06 0.17 0.23 0.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: -2.894 percent</t>
-  </si>
-  <si>
-    <t>PLR: 0.9711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.9556</t>
-  </si>
-  <si>
     <t>&gt; fTHg_Outflowm9 &lt;- loadReg(fTHg ~model(9), data = fTHg_Outflow, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
   </si>
   <si>
@@ -1398,88 +987,496 @@
     <t>&gt; fTHg_Outflowm9</t>
   </si>
   <si>
-    <t>(Intercept) -5.72821    0.48621 -11.781  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ          1.10306    0.05749  19.186  0.0000</t>
-  </si>
-  <si>
-    <t>lnQ2         0.04575    0.01286   3.559  0.0003</t>
-  </si>
-  <si>
-    <t>DECTIME     -0.78971    0.16137  -4.894  0.0000</t>
-  </si>
-  <si>
-    <t>DECTIME2     0.55842    0.27150   2.057  0.0249</t>
-  </si>
-  <si>
-    <t>sin.DECTIME -1.00984    0.55983  -1.804  0.0471</t>
-  </si>
-  <si>
-    <t>cos.DECTIME -0.41234    0.50409  -0.818  0.3559</t>
-  </si>
-  <si>
-    <t>Residual variance: 0.1881</t>
-  </si>
-  <si>
-    <t>R-squared: 97 percent</t>
-  </si>
-  <si>
-    <t>G-squared: 108.7 on 6 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  r = 0.9783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p-value = 0.2111</t>
-  </si>
-  <si>
-    <t>Serial Correlation of Residuals: 0.3331</t>
-  </si>
-  <si>
-    <t>lnQ2        1.629</t>
-  </si>
-  <si>
-    <t>DECTIME     1.624</t>
-  </si>
-  <si>
-    <t>DECTIME2    2.364</t>
-  </si>
-  <si>
-    <t>sin.DECTIME 8.147</t>
-  </si>
-  <si>
-    <t>cos.DECTIME 6.339</t>
-  </si>
-  <si>
-    <t>Est   0   0 0.01 0.06 0.15 0.27 0.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bp: -1.05 percent</t>
-  </si>
-  <si>
-    <t>PLR: 0.9895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E: 0.9723</t>
-  </si>
-  <si>
-    <t>Number of Uncensored Observations: 31; Period of record: 2016-01-20 to 2018-04-08</t>
-  </si>
-  <si>
-    <t>15.76, 14.43, 13.50</t>
-  </si>
-  <si>
-    <t>15.86, 16.11, 18.96</t>
-  </si>
-  <si>
-    <t>12.45, 15.32, 28.17</t>
-  </si>
-  <si>
-    <t>12.49, 15.53, 28.63</t>
-  </si>
-  <si>
-    <t>n-close</t>
+    <t xml:space="preserve">           Number of Observations: 30</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Center of Decimal Time: 2016.955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  Center of ln(Q): 6.989</t>
+  </si>
+  <si>
+    <t>(Intercept)   -4.337    0.11510  -37.68       0</t>
+  </si>
+  <si>
+    <t>lnQ            1.104    0.07006   15.75       0</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.3968</t>
+  </si>
+  <si>
+    <t>R-squared: 89.86 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 68.67 on 1 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0278</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.5438</t>
+  </si>
+  <si>
+    <t>Est   0   0 0.01 0.06 0.22 0.25 0.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 5.494 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.899</t>
+  </si>
+  <si>
+    <t>(Intercept) -4.357980    0.17318 -25.1641  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.103780    0.07131  15.4781  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.007756    0.04726   0.1641  0.8627</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.4111</t>
+  </si>
+  <si>
+    <t>R-squared: 89.87 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 68.7 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0358</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.5648</t>
+  </si>
+  <si>
+    <t>Est   0   0 0.01 0.06 0.22 0.26 0.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 6.699 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8974</t>
+  </si>
+  <si>
+    <t>(Intercept)  -4.5138    0.09848 -45.835   0e+00</t>
+  </si>
+  <si>
+    <t>lnQ           1.1183    0.05474  20.429   0e+00</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.6292    0.14422  -4.363   1e-04</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2414</t>
+  </si>
+  <si>
+    <t>R-squared: 94.05 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 84.68 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0483</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.1793</t>
+  </si>
+  <si>
+    <t>lnQ     1.004</t>
+  </si>
+  <si>
+    <t>DECTIME 1.004</t>
+  </si>
+  <si>
+    <t>Est   0   0 0.01 0.07 0.17 0.18 0.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -10.2 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8571</t>
+  </si>
+  <si>
+    <t>(Intercept)  -5.2465    0.60811 -8.6277  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.0569    0.07019 15.0572  0.0000</t>
+  </si>
+  <si>
+    <t>sin.DECTIME   0.4953    0.53304  0.9293  0.3222</t>
+  </si>
+  <si>
+    <t>cos.DECTIME   1.0860    0.51116  2.1247  0.0284</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.3361</t>
+  </si>
+  <si>
+    <t>R-squared: 92.03 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 75.87 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0306</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3448</t>
+  </si>
+  <si>
+    <t>lnQ         1.185</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 3.475</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 3.508</t>
+  </si>
+  <si>
+    <t>Est   0   0 0.01 0.06 0.24 0.26 0.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 9.107 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8862</t>
+  </si>
+  <si>
+    <t>(Intercept) -4.73811    0.14733 -32.159  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.12063    0.05204  21.533  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.07252    0.03678   1.972  0.0409</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.73113    0.14649  -4.991  0.0000</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.218</t>
+  </si>
+  <si>
+    <t>R-squared: 94.83 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 88.86 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.3844</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3285</t>
+  </si>
+  <si>
+    <t>lnQ2    1.142</t>
+  </si>
+  <si>
+    <t>DECTIME 1.146</t>
+  </si>
+  <si>
+    <t>Est   0   0 0.01 0.06 0.20 0.22 0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -1.872 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.9216</t>
+  </si>
+  <si>
+    <t>(Intercept) -5.10657    0.64903 -7.8680  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.05854    0.07099 14.9116  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.03256    0.04849 -0.6714  0.4640</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  0.40597    0.55496  0.7315  0.4254</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  1.09742    0.51692  2.1230  0.0258</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.3434</t>
+  </si>
+  <si>
+    <t>R-squared: 92.17 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 76.41 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0144</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2446</t>
+  </si>
+  <si>
+    <t>lnQ         1.186</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 3.687</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 3.512</t>
+  </si>
+  <si>
+    <t>Est   0   0 0.01 0.06 0.22 0.24 0.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 3.873 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.9114</t>
+  </si>
+  <si>
+    <t>(Intercept)  -4.3983    0.54113 -8.1280  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.1189    0.05921 18.8963  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.6056    0.15893 -3.8107  0.0002</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  -0.3206    0.48246 -0.6644  0.4687</t>
+  </si>
+  <si>
+    <t>cos.DECTIME   0.1854    0.47723  0.3886  0.6708</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2211</t>
+  </si>
+  <si>
+    <t>R-squared: 94.96 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 89.61 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0229</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.1661</t>
+  </si>
+  <si>
+    <t>lnQ         1.282</t>
+  </si>
+  <si>
+    <t>DECTIME     1.331</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 4.327</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 4.648</t>
+  </si>
+  <si>
+    <t>Est   0   0 0.01 0.06 0.17 0.22 0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -6.059 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.943</t>
+  </si>
+  <si>
+    <t>(Intercept) -4.47384    0.54524 -8.20520  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.12535    0.05945 18.92845  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.04534    0.04377  1.03572  0.2521</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.69091    0.17879 -3.86445  0.0001</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -0.31099    0.48185 -0.64540  0.4725</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  0.04280    0.49604  0.08629  0.9232</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2205</t>
+  </si>
+  <si>
+    <t>R-squared: 95.17 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 90.92 on 5 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.28</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2995</t>
+  </si>
+  <si>
+    <t>lnQ         1.296</t>
+  </si>
+  <si>
+    <t>lnQ2        1.600</t>
+  </si>
+  <si>
+    <t>DECTIME     1.689</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 4.329</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 5.036</t>
+  </si>
+  <si>
+    <t>Est   0   0 0.01 0.06 0.19 0.24 0.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -1.808 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.9577</t>
+  </si>
+  <si>
+    <t>(Intercept) -4.07147    0.55187 -7.3776  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.23311    0.07770 15.8696  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.05376    0.04148  1.2960  0.1459</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.79707    0.17668 -4.5114  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME2     0.55552    0.27746  2.0022  0.0281</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -1.00599    0.57167 -1.7597  0.0516</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -0.43316    0.52455 -0.8258  0.3492</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.1959</t>
+  </si>
+  <si>
+    <t>R-squared: 95.89 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 95.74 on 6 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.3248</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3437</t>
+  </si>
+  <si>
+    <t>lnQ         2.491</t>
+  </si>
+  <si>
+    <t>lnQ2        1.616</t>
+  </si>
+  <si>
+    <t>DECTIME     1.856</t>
+  </si>
+  <si>
+    <t>DECTIME2    2.288</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 6.857</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 6.337</t>
+  </si>
+  <si>
+    <t>Est   0   0 0.01 0.06 0.17 0.27 0.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -0.2622 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.9727</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 30; Period of record: 2016-01-20 to 2018-04-08</t>
+  </si>
+  <si>
+    <t>13.1, 17.7, 20.5</t>
+  </si>
+  <si>
+    <t>12.1, 14.8, 29.2</t>
+  </si>
+  <si>
+    <t>11.6, 14.3, 45.5</t>
+  </si>
+  <si>
+    <t>2 of 3</t>
+  </si>
+  <si>
+    <t>1 of 3</t>
   </si>
 </sst>
 </file>
@@ -1725,7 +1722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1846,6 +1843,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1870,7 +1870,16 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2344,7 +2353,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O18" sqref="O17:O18"/>
+      <selection pane="bottomLeft" activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2366,24 +2375,24 @@
       <c r="A1" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46" t="s">
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="46"/>
+      <c r="M1" s="47"/>
       <c r="O1" s="21"/>
       <c r="R1" s="8" t="s">
         <v>10</v>
@@ -2434,7 +2443,7 @@
       <c r="P2" s="25"/>
       <c r="Q2" s="25"/>
       <c r="R2" s="8" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -2524,39 +2533,39 @@
       <c r="Q5" s="37"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="52" t="s">
         <v>272</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="54"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B7" s="48" t="s">
-        <v>464</v>
-      </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="47" t="s">
+      <c r="B7" s="49" t="s">
+        <v>463</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="47"/>
+      <c r="M7" s="48"/>
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:31" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -2641,19 +2650,19 @@
         <v>7</v>
       </c>
       <c r="I9" s="6">
-        <v>91.5</v>
+        <v>89.86</v>
       </c>
       <c r="J9" s="6">
-        <v>1.7999999999999999E-2</v>
+        <v>2.7799999999999998E-2</v>
       </c>
       <c r="K9" s="6">
-        <v>0.51459999999999995</v>
+        <v>0.54379999999999995</v>
       </c>
       <c r="L9" s="6">
-        <v>-6.67</v>
+        <v>5.4939999999999998</v>
       </c>
       <c r="M9" s="6">
-        <v>0.88090000000000002</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="N9" s="6">
         <v>1</v>
@@ -2662,9 +2671,11 @@
         <v>267</v>
       </c>
       <c r="P9" s="31" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q9" s="31"/>
+        <v>464</v>
+      </c>
+      <c r="Q9" s="31" t="s">
+        <v>468</v>
+      </c>
       <c r="R9" s="8" t="s">
         <v>10</v>
       </c>
@@ -2684,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="19">
-        <v>4.1799999999999997E-2</v>
+        <v>0.86270000000000002</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>9</v>
@@ -2701,36 +2712,32 @@
       <c r="H10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="45">
-        <v>92.56</v>
-      </c>
-      <c r="J10" s="45">
-        <v>7.8700000000000006E-2</v>
-      </c>
-      <c r="K10" s="45">
-        <v>0.62160000000000004</v>
-      </c>
-      <c r="L10" s="45">
-        <v>9.9749999999999996</v>
-      </c>
-      <c r="M10" s="45">
-        <v>0.88700000000000001</v>
+      <c r="I10" s="46">
+        <v>89.87</v>
+      </c>
+      <c r="J10" s="46">
+        <v>3.5799999999999998E-2</v>
+      </c>
+      <c r="K10" s="46">
+        <v>0.56479999999999997</v>
+      </c>
+      <c r="L10" s="46">
+        <v>6.6989999999999998</v>
+      </c>
+      <c r="M10" s="46">
+        <v>0.89739999999999998</v>
       </c>
       <c r="N10" s="6">
         <v>2</v>
       </c>
-      <c r="O10" s="40" t="s">
-        <v>267</v>
-      </c>
-      <c r="P10" s="40" t="s">
-        <v>466</v>
-      </c>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
       <c r="Q10" s="31"/>
       <c r="R10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="AB10" s="9" t="s">
         <v>11</v>
@@ -2738,60 +2745,62 @@
       <c r="AE10" s="9"/>
     </row>
     <row r="11" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="31">
+      <c r="A11" s="56">
         <v>3</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="56">
         <v>0</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="32">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="57">
+        <v>1E-4</v>
+      </c>
+      <c r="E11" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="31">
-        <v>94.16</v>
-      </c>
-      <c r="J11" s="31">
-        <v>0.61019999999999996</v>
-      </c>
-      <c r="K11" s="31">
-        <v>0.2913</v>
-      </c>
-      <c r="L11" s="31">
-        <v>-20.03</v>
-      </c>
-      <c r="M11" s="31">
-        <v>0.77159999999999995</v>
-      </c>
-      <c r="N11" s="31">
+      <c r="I11" s="56">
+        <v>94.05</v>
+      </c>
+      <c r="J11" s="56">
+        <v>4.8300000000000003E-2</v>
+      </c>
+      <c r="K11" s="56">
+        <v>0.17929999999999999</v>
+      </c>
+      <c r="L11" s="56">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="M11" s="56">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="N11" s="44">
         <v>3</v>
       </c>
-      <c r="O11" s="31" t="s">
+      <c r="O11" s="44" t="s">
         <v>267</v>
       </c>
-      <c r="P11" s="31" t="s">
+      <c r="P11" s="44" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q11" s="58" t="s">
         <v>467</v>
       </c>
-      <c r="Q11" s="31"/>
       <c r="R11" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="AB11" s="9" t="s">
         <v>11</v>
@@ -2815,28 +2824,28 @@
         <v>9</v>
       </c>
       <c r="F12" s="6">
-        <v>0.45340000000000003</v>
-      </c>
-      <c r="G12" s="45">
-        <v>3.0800000000000001E-2</v>
+        <v>0.32219999999999999</v>
+      </c>
+      <c r="G12" s="46">
+        <v>2.8400000000000002E-2</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="45">
-        <v>93.56</v>
-      </c>
-      <c r="J12" s="45">
-        <v>5.4600000000000003E-2</v>
-      </c>
-      <c r="K12" s="45">
-        <v>0.32040000000000002</v>
-      </c>
-      <c r="L12" s="45">
-        <v>0.98650000000000004</v>
-      </c>
-      <c r="M12" s="45">
-        <v>0.91510000000000002</v>
+      <c r="I12" s="46">
+        <v>92.03</v>
+      </c>
+      <c r="J12" s="46">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="K12" s="46">
+        <v>0.3448</v>
+      </c>
+      <c r="L12" s="46">
+        <v>9.1069999999999993</v>
+      </c>
+      <c r="M12" s="46">
+        <v>0.88619999999999999</v>
       </c>
       <c r="N12" s="31">
         <v>4</v>
@@ -2847,7 +2856,7 @@
         <v>10</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="AB12" s="9" t="s">
         <v>11</v>
@@ -2855,62 +2864,62 @@
       <c r="AE12" s="9"/>
     </row>
     <row r="13" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
+      <c r="A13" s="6">
         <v>5</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="6">
         <v>0</v>
       </c>
-      <c r="C13" s="54">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="D13" s="54">
+      <c r="C13" s="55">
+        <v>4.0899999999999999E-2</v>
+      </c>
+      <c r="D13" s="55">
         <v>0</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="43" t="s">
+      <c r="G13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="11">
-        <v>96.12</v>
-      </c>
-      <c r="J13" s="11">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="K13" s="11">
-        <v>0.25030000000000002</v>
-      </c>
-      <c r="L13" s="11">
-        <v>-4.9610000000000003</v>
-      </c>
-      <c r="M13" s="45">
-        <v>0.90539999999999998</v>
-      </c>
-      <c r="N13" s="44">
+      <c r="I13" s="6">
+        <v>94.83</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0.38440000000000002</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0.32850000000000001</v>
+      </c>
+      <c r="L13" s="6">
+        <v>-1.8720000000000001</v>
+      </c>
+      <c r="M13" s="46">
+        <v>0.92159999999999997</v>
+      </c>
+      <c r="N13" s="31">
         <v>5</v>
       </c>
-      <c r="O13" s="44" t="s">
+      <c r="O13" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="P13" s="44" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q13" s="44" t="s">
-        <v>469</v>
+      <c r="P13" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q13" s="31" t="s">
+        <v>271</v>
       </c>
       <c r="R13" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>352</v>
+        <v>290</v>
       </c>
       <c r="AB13" s="9" t="s">
         <v>11</v>
@@ -2924,8 +2933,8 @@
       <c r="B14" s="6">
         <v>0</v>
       </c>
-      <c r="C14" s="45">
-        <v>0.14019999999999999</v>
+      <c r="C14" s="46">
+        <v>0.46400000000000002</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>9</v>
@@ -2934,28 +2943,28 @@
         <v>9</v>
       </c>
       <c r="F14" s="6">
-        <v>0.29680000000000001</v>
-      </c>
-      <c r="G14" s="45">
-        <v>2.87E-2</v>
+        <v>0.4254</v>
+      </c>
+      <c r="G14" s="46">
+        <v>2.58E-2</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="45">
-        <v>94</v>
-      </c>
-      <c r="J14" s="45">
-        <v>4.5600000000000002E-2</v>
-      </c>
-      <c r="K14" s="45">
-        <v>0.4002</v>
-      </c>
-      <c r="L14" s="45">
-        <v>10.65</v>
-      </c>
-      <c r="M14" s="45">
-        <v>0.87429999999999997</v>
+      <c r="I14" s="46">
+        <v>92.17</v>
+      </c>
+      <c r="J14" s="46">
+        <v>1.44E-2</v>
+      </c>
+      <c r="K14" s="46">
+        <v>0.24460000000000001</v>
+      </c>
+      <c r="L14" s="46">
+        <v>3.8730000000000002</v>
+      </c>
+      <c r="M14" s="46">
+        <v>0.91139999999999999</v>
       </c>
       <c r="N14" s="31">
         <v>6</v>
@@ -2966,7 +2975,7 @@
         <v>10</v>
       </c>
       <c r="T14" s="8" t="s">
-        <v>372</v>
+        <v>293</v>
       </c>
       <c r="AB14" s="9" t="s">
         <v>11</v>
@@ -2984,34 +2993,34 @@
         <v>9</v>
       </c>
       <c r="D15" s="6">
-        <v>1.2999999999999999E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="6">
-        <v>0.42309999999999998</v>
-      </c>
-      <c r="G15" s="45">
-        <v>0.55889999999999995</v>
+        <v>0.46870000000000001</v>
+      </c>
+      <c r="G15" s="46">
+        <v>0.67079999999999995</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="45">
-        <v>95.4</v>
-      </c>
-      <c r="J15" s="45">
-        <v>0.2918</v>
-      </c>
-      <c r="K15" s="45">
-        <v>0.20150000000000001</v>
-      </c>
-      <c r="L15" s="45">
-        <v>-12.89</v>
-      </c>
-      <c r="M15" s="45">
-        <v>0.91559999999999997</v>
+      <c r="I15" s="46">
+        <v>94.96</v>
+      </c>
+      <c r="J15" s="46">
+        <v>2.29E-2</v>
+      </c>
+      <c r="K15" s="46">
+        <v>0.1661</v>
+      </c>
+      <c r="L15" s="46">
+        <v>-6.0590000000000002</v>
+      </c>
+      <c r="M15" s="46">
+        <v>0.94299999999999995</v>
       </c>
       <c r="N15" s="31">
         <v>7</v>
@@ -3022,7 +3031,7 @@
         <v>10</v>
       </c>
       <c r="T15" s="8" t="s">
-        <v>394</v>
+        <v>296</v>
       </c>
       <c r="AB15" s="9" t="s">
         <v>11</v>
@@ -3036,38 +3045,38 @@
       <c r="B16" s="6">
         <v>0</v>
       </c>
-      <c r="C16" s="45">
-        <v>4.1000000000000003E-3</v>
+      <c r="C16" s="46">
+        <v>0.25209999999999999</v>
       </c>
       <c r="D16" s="6">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="6">
-        <v>0.46550000000000002</v>
+        <v>0.47249999999999998</v>
       </c>
       <c r="G16" s="6">
-        <v>0.85409999999999997</v>
+        <v>0.92320000000000002</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="45">
-        <v>96.47</v>
-      </c>
-      <c r="J16" s="45">
-        <v>0.1207</v>
-      </c>
-      <c r="K16" s="45">
-        <v>0.28410000000000002</v>
-      </c>
-      <c r="L16" s="45">
-        <v>-2.8940000000000001</v>
-      </c>
-      <c r="M16" s="45">
-        <v>0.9556</v>
+      <c r="I16" s="46">
+        <v>95.17</v>
+      </c>
+      <c r="J16" s="46">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K16" s="46">
+        <v>0.29949999999999999</v>
+      </c>
+      <c r="L16" s="46">
+        <v>-1.8080000000000001</v>
+      </c>
+      <c r="M16" s="46">
+        <v>0.9577</v>
       </c>
       <c r="N16" s="31">
         <v>8</v>
@@ -3078,7 +3087,7 @@
         <v>10</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>416</v>
+        <v>299</v>
       </c>
       <c r="AB16" s="9" t="s">
         <v>11</v>
@@ -3092,38 +3101,38 @@
       <c r="B17" s="6">
         <v>0</v>
       </c>
-      <c r="C17" s="45">
-        <v>2.9999999999999997E-4</v>
+      <c r="C17" s="46">
+        <v>0.1459</v>
       </c>
       <c r="D17" s="6">
         <v>0</v>
       </c>
       <c r="E17" s="6">
-        <v>2.4899999999999999E-2</v>
+        <v>2.81E-2</v>
       </c>
       <c r="F17" s="6">
-        <v>4.7100000000000003E-2</v>
+        <v>5.16E-2</v>
       </c>
       <c r="G17" s="6">
-        <v>0.35589999999999999</v>
+        <v>0.34920000000000001</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="45">
-        <v>97</v>
-      </c>
-      <c r="J17" s="45">
-        <v>0.21110000000000001</v>
-      </c>
-      <c r="K17" s="45">
-        <v>0.33310000000000001</v>
-      </c>
-      <c r="L17" s="45">
-        <v>-1.05</v>
-      </c>
-      <c r="M17" s="45">
-        <v>0.97230000000000005</v>
+      <c r="I17" s="46">
+        <v>95.89</v>
+      </c>
+      <c r="J17" s="46">
+        <v>0.32479999999999998</v>
+      </c>
+      <c r="K17" s="46">
+        <v>0.34370000000000001</v>
+      </c>
+      <c r="L17" s="46">
+        <v>-0.26219999999999999</v>
+      </c>
+      <c r="M17" s="46">
+        <v>0.97270000000000001</v>
       </c>
       <c r="N17" s="31">
         <v>9</v>
@@ -3134,7 +3143,7 @@
         <v>10</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>440</v>
+        <v>303</v>
       </c>
       <c r="AB17" s="9" t="s">
         <v>11</v>
@@ -3142,39 +3151,39 @@
       <c r="AE17" s="9"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
       <c r="R19" s="1"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="47" t="s">
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="47"/>
+      <c r="M20" s="48"/>
       <c r="R20" s="1"/>
     </row>
     <row r="21" spans="1:31" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -3817,7 +3826,7 @@
   <dimension ref="A1:A528"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3870,27 +3879,27 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -3929,12 +3938,12 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -3947,17 +3956,17 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
@@ -3972,17 +3981,17 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -4018,12 +4027,12 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
@@ -4041,17 +4050,17 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
@@ -4059,7 +4068,7 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
@@ -4069,7 +4078,7 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
@@ -4079,7 +4088,7 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
@@ -4105,27 +4114,27 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
@@ -4159,22 +4168,22 @@
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>69</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
@@ -4187,17 +4196,17 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
@@ -4212,17 +4221,17 @@
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
@@ -4278,12 +4287,12 @@
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
@@ -4301,17 +4310,17 @@
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -4319,7 +4328,7 @@
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
@@ -4329,7 +4338,7 @@
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
@@ -4339,7 +4348,7 @@
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
@@ -4365,27 +4374,27 @@
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
@@ -4424,17 +4433,17 @@
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
@@ -4447,17 +4456,17 @@
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
@@ -4472,17 +4481,17 @@
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
@@ -4495,17 +4504,17 @@
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
-        <v>324</v>
+        <v>124</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
@@ -4538,12 +4547,12 @@
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
@@ -4561,17 +4570,17 @@
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="14" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="14" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
@@ -4579,7 +4588,7 @@
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="15" t="s">
-        <v>331</v>
+        <v>286</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
@@ -4589,7 +4598,7 @@
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
@@ -4599,7 +4608,7 @@
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="15" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
@@ -4625,27 +4634,27 @@
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="14" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="14" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="14" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="14" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="14" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
@@ -4679,27 +4688,27 @@
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="14" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="14" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="14" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="14" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="14" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
@@ -4712,17 +4721,17 @@
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="14" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="14" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="14" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
@@ -4737,17 +4746,17 @@
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="14" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="14" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="14" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
@@ -4765,17 +4774,17 @@
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="14" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="14" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="14" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
@@ -4808,12 +4817,12 @@
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="14" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="14" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
@@ -4831,17 +4840,17 @@
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="14" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="14" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="14" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
@@ -4849,7 +4858,7 @@
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="15" t="s">
-        <v>351</v>
+        <v>289</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
@@ -4859,7 +4868,7 @@
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>352</v>
+        <v>290</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
@@ -4869,7 +4878,7 @@
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="15" t="s">
-        <v>353</v>
+        <v>291</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
@@ -4895,27 +4904,27 @@
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="14" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="14" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="14" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="14" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="14" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
@@ -4954,22 +4963,22 @@
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="14" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="14" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="14" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="14" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
@@ -4982,17 +4991,17 @@
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="14" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="14" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="14" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
@@ -5007,17 +5016,17 @@
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="14" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="14" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="14" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
@@ -5035,17 +5044,17 @@
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="14" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="14" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="14" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
@@ -5078,12 +5087,12 @@
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="14" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="14" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
@@ -5101,17 +5110,17 @@
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="14" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="14" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="14" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
@@ -5119,7 +5128,7 @@
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="15" t="s">
-        <v>371</v>
+        <v>292</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
@@ -5129,7 +5138,7 @@
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
-        <v>372</v>
+        <v>293</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
@@ -5139,7 +5148,7 @@
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="15" t="s">
-        <v>373</v>
+        <v>294</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
@@ -5165,27 +5174,27 @@
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="14" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="14" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="14" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="14" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="14" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
@@ -5219,32 +5228,32 @@
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="14" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="14" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="14" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="14" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="14" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="14" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
@@ -5257,17 +5266,17 @@
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="14" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="14" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="14" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
@@ -5282,17 +5291,17 @@
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="14" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="14" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="14" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
@@ -5310,22 +5319,22 @@
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="14" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="14" t="s">
-        <v>386</v>
+        <v>301</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="14" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="14" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
@@ -5358,12 +5367,12 @@
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="14" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="14" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
@@ -5381,17 +5390,17 @@
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="14" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="14" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="14" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
@@ -5399,7 +5408,7 @@
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="15" t="s">
-        <v>393</v>
+        <v>295</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
@@ -5409,7 +5418,7 @@
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="7" t="s">
-        <v>394</v>
+        <v>296</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
@@ -5419,7 +5428,7 @@
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="15" t="s">
-        <v>395</v>
+        <v>297</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
@@ -5445,27 +5454,27 @@
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="14" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="14" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="14" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="14" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="14" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
@@ -5499,32 +5508,32 @@
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="14" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="14" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="14" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="14" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="14" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="14" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
@@ -5537,17 +5546,17 @@
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="14" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="14" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="14" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
@@ -5562,17 +5571,17 @@
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="14" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="14" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="14" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
@@ -5590,22 +5599,22 @@
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="14" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="14" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="14" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="14" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
@@ -5638,12 +5647,12 @@
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="14" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="14" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
@@ -5661,17 +5670,17 @@
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="14" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="14" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="14" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
@@ -5679,7 +5688,7 @@
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="15" t="s">
-        <v>415</v>
+        <v>298</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
@@ -5689,7 +5698,7 @@
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="7" t="s">
-        <v>416</v>
+        <v>299</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
@@ -5699,7 +5708,7 @@
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="15" t="s">
-        <v>417</v>
+        <v>300</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
@@ -5725,27 +5734,27 @@
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="14" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="14" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="14" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="14" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="14" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
@@ -5784,32 +5793,32 @@
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="14" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="14" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="14" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="14" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="14" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="14" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
@@ -5822,17 +5831,17 @@
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="14" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="14" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="14" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
@@ -5847,17 +5856,17 @@
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="14" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="14" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="14" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
@@ -5875,27 +5884,27 @@
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="14" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="14" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="14" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="14" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="14" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
@@ -5928,12 +5937,12 @@
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="14" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="14" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
@@ -5951,17 +5960,17 @@
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="14" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="14" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="14" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
@@ -5969,7 +5978,7 @@
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="15" t="s">
-        <v>439</v>
+        <v>302</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
@@ -5979,7 +5988,7 @@
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" s="7" t="s">
-        <v>440</v>
+        <v>303</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
@@ -5989,7 +5998,7 @@
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="15" t="s">
-        <v>441</v>
+        <v>304</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
@@ -6015,27 +6024,27 @@
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="14" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="14" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="14" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="14" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="14" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
@@ -6074,37 +6083,37 @@
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="14" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="14" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="14" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="14" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="14" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="14" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
@@ -6117,17 +6126,17 @@
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
@@ -6142,17 +6151,17 @@
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
@@ -6170,32 +6179,32 @@
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="14" t="s">
-        <v>256</v>
+        <v>453</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" s="14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
@@ -6228,12 +6237,12 @@
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" s="14" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
@@ -6251,17 +6260,17 @@
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">

--- a/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/4_wy2016-2018/4_fTHg Model Results.xlsx
+++ b/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/4_wy2016-2018/4_fTHg Model Results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slrose\R\2018_CCSB_LoadsData_WY2010-2017\Model Stats_rloadest\4_wy2016-2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731B8989-49D2-42CB-8921-7A1619471FFF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74AFC1D-34FD-41BA-A447-D1FA851C2FA3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fTHg wy2016-18 Model Results" sheetId="2" r:id="rId1"/>
-    <sheet name="Outlet_30ct" sheetId="5" r:id="rId2"/>
-    <sheet name="Rumsey" sheetId="8" r:id="rId3"/>
+    <sheet name="Combined" sheetId="9" r:id="rId2"/>
+    <sheet name="Outlet_30ct" sheetId="5" r:id="rId3"/>
+    <sheet name="Rumsey" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="668">
   <si>
     <t>Model #</t>
   </si>
@@ -1477,6 +1478,603 @@
   </si>
   <si>
     <t>1 of 3</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 36; Period of record: 2016-01-20 to 2018-04-08</t>
+  </si>
+  <si>
+    <t>&gt; fTHg_Combinedm1 &lt;- loadReg(fTHg ~model(1), data = fTHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(fTHg ~ model(1), data = fTHg_Combined, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fTHg_Combinedm1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Number of Observations: 36</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Center of Decimal Time: 2016.919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  Center of ln(Q): 7.0238</t>
+  </si>
+  <si>
+    <t>(Intercept)   -4.376    0.09544  -45.85       0</t>
+  </si>
+  <si>
+    <t>lnQ            1.058    0.05647   18.74       0</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.3248</t>
+  </si>
+  <si>
+    <t>R-squared: 91.17 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 87.38 on 1 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0463</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.6857</t>
+  </si>
+  <si>
+    <t>Est   0   0 0.04 0.08 0.17 0.20 0.21</t>
+  </si>
+  <si>
+    <t>Obs   0   0 0.01 0.08 0.14 0.22 0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 6.947 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8739</t>
+  </si>
+  <si>
+    <t>&gt; fTHg_Combinedm2 &lt;- loadReg(fTHg ~model(2), data = fTHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(fTHg ~ model(2), data = fTHg_Combined, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fTHg_Combinedm2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Estimate Std. Error   z-score p-value</t>
+  </si>
+  <si>
+    <t>(Intercept) -4.368456    0.15367 -28.42753  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.058284    0.05732  18.46285  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.002469    0.04177  -0.05912  0.9508</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.3346</t>
+  </si>
+  <si>
+    <t>G-squared: 87.39 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0423</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.682</t>
+  </si>
+  <si>
+    <t>Est   0   0 0.04 0.08 0.17 0.20 0.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 6.576 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8746</t>
+  </si>
+  <si>
+    <t>&gt; fTHg_Combinedm3 &lt;- loadReg(fTHg ~model(3), data = fTHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(fTHg ~ model(3), data = fTHg_Combined, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fTHg_Combinedm3</t>
+  </si>
+  <si>
+    <t>(Intercept)  -4.4881    0.07223 -62.133       0</t>
+  </si>
+  <si>
+    <t>lnQ           1.0886    0.04141  26.290       0</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.6715    0.11995  -5.598       0</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.1716</t>
+  </si>
+  <si>
+    <t>R-squared: 95.47 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 111.4 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0623</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.325</t>
+  </si>
+  <si>
+    <t>lnQ     1.017</t>
+  </si>
+  <si>
+    <t>DECTIME 1.017</t>
+  </si>
+  <si>
+    <t>Est   0   0 0.03 0.08 0.14 0.16 0.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -5.608 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.889</t>
+  </si>
+  <si>
+    <t>&gt; fTHg_Combinedm4 &lt;- loadReg(fTHg ~model(4), data = fTHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(fTHg ~ model(4), data = fTHg_Combined, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fTHg_Combinedm4</t>
+  </si>
+  <si>
+    <t>(Intercept)  -5.3056    0.56556  -9.381  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.0054    0.05987  16.794  0.0000</t>
+  </si>
+  <si>
+    <t>sin.DECTIME   0.5836    0.49567   1.177  0.2166</t>
+  </si>
+  <si>
+    <t>cos.DECTIME   0.9703    0.47838   2.028  0.0369</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.295</t>
+  </si>
+  <si>
+    <t>R-squared: 92.45 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 93.03 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0959</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.5554</t>
+  </si>
+  <si>
+    <t>lnQ         1.237</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 3.973</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 4.201</t>
+  </si>
+  <si>
+    <t>Est   0   0 0.03 0.08 0.18 0.20 0.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 7.685 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8442</t>
+  </si>
+  <si>
+    <t>&gt; fTHg_Combinedm5 &lt;- loadReg(fTHg ~model(5), data = fTHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(fTHg ~ model(5), data = fTHg_Combined, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fTHg_Combinedm5</t>
+  </si>
+  <si>
+    <t>(Intercept) -4.66627    0.11656 -40.032  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.09203    0.03989  27.374  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.05797    0.03044   1.905  0.0493</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.74695    0.12205  -6.120  0.0000</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.159</t>
+  </si>
+  <si>
+    <t>R-squared: 95.93 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 115.3 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.3792</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.34</t>
+  </si>
+  <si>
+    <t>lnQ     1.019</t>
+  </si>
+  <si>
+    <t>lnQ2    1.118</t>
+  </si>
+  <si>
+    <t>DECTIME 1.137</t>
+  </si>
+  <si>
+    <t>Est   0   0 0.03 0.08 0.15 0.18 0.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -0.3241 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.9229</t>
+  </si>
+  <si>
+    <t>&gt; fTHg_Combinedm6 &lt;- loadReg(fTHg ~model(6), data = fTHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(fTHg ~ model(6), data = fTHg_Combined, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fTHg_Combinedm6</t>
+  </si>
+  <si>
+    <t>(Intercept) -5.19637    0.59589 -8.7203  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.00497    0.06043 16.6297  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.02772    0.04335 -0.6393  0.4923</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  0.52081    0.50985  1.0215  0.2750</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  0.98001    0.48310  2.0286  0.0341</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.3005</t>
+  </si>
+  <si>
+    <t>R-squared: 92.55 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 93.5 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0684</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.5178</t>
+  </si>
+  <si>
+    <t>lnQ         1.238</t>
+  </si>
+  <si>
+    <t>lnQ2        1.199</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 4.126</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 4.205</t>
+  </si>
+  <si>
+    <t>Est   0   0 0.03 0.08 0.17 0.18 0.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 4.452 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8551</t>
+  </si>
+  <si>
+    <t>&gt; fTHg_Combinedm7 &lt;- loadReg(fTHg ~model(7), data = fTHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(fTHg ~ model(7), data = fTHg_Combined, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fTHg_Combinedm7</t>
+  </si>
+  <si>
+    <t>(Intercept) -4.262693    0.46117 -9.24319  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.090511    0.04697 23.21876  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.694356    0.13141 -5.28390  0.0000</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -0.390866    0.40920 -0.95519  0.3068</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -0.007567    0.39817 -0.01901  0.9837</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.1602</t>
+  </si>
+  <si>
+    <t>R-squared: 96.03 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 116.2 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.093</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3385</t>
+  </si>
+  <si>
+    <t>lnQ         1.402</t>
+  </si>
+  <si>
+    <t>DECTIME     1.308</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 4.985</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 5.359</t>
+  </si>
+  <si>
+    <t>Est   0   0 0.03 0.08 0.13 0.18 0.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -4.131 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.9326</t>
+  </si>
+  <si>
+    <t>&gt; fTHg_Combinedm8 &lt;- loadReg(fTHg ~model(8), data = fTHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(fTHg ~ model(8), data = fTHg_Combined, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fTHg_Combinedm8</t>
+  </si>
+  <si>
+    <t>(Intercept) -4.32793    0.46121 -9.3839  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.09890    0.04717 23.2989  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.04059    0.03390  1.1973  0.1949</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.75744    0.14074 -5.3820  0.0000</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -0.38748    0.40638 -0.9535  0.2999</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -0.11066    0.40468 -0.2734  0.7647</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.158</t>
+  </si>
+  <si>
+    <t>R-squared: 96.21 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 117.8 on 5 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.3342</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3619</t>
+  </si>
+  <si>
+    <t>lnQ         1.434</t>
+  </si>
+  <si>
+    <t>lnQ2        1.395</t>
+  </si>
+  <si>
+    <t>DECTIME     1.521</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 4.986</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 5.613</t>
+  </si>
+  <si>
+    <t>Est   0   0 0.03 0.08 0.14 0.20 0.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -0.7529 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.949</t>
+  </si>
+  <si>
+    <t>&gt; fTHg_Combinedm9 &lt;- loadReg(fTHg ~model(9), data = fTHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(fTHg ~ model(9), data = fTHg_Combined, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fTHg_Combinedm9</t>
+  </si>
+  <si>
+    <t>(Intercept) -3.89053    0.44842  -8.676  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.20683    0.05835  20.683  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.04076    0.03077   1.325  0.1459</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.87271    0.13458  -6.485  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME2     0.58351    0.21434   2.722  0.0042</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -1.12096    0.45679  -2.454  0.0092</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -0.53562    0.39912  -1.342  0.1408</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.1302</t>
+  </si>
+  <si>
+    <t>R-squared: 96.98 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 126 on 6 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.4744</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2465</t>
+  </si>
+  <si>
+    <t>lnQ         2.664</t>
+  </si>
+  <si>
+    <t>DECTIME2    2.439</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 7.646</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 6.627</t>
+  </si>
+  <si>
+    <t>Est   0   0 0.02 0.08 0.14 0.23 0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 0.4523 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.9633</t>
+  </si>
+  <si>
+    <t>9.95, 10.05, 23.46</t>
+  </si>
+  <si>
+    <t>NaNs produced</t>
+  </si>
+  <si>
+    <t>Combined Outflow fTHg</t>
+  </si>
+  <si>
+    <t>In loadReg(fTHg ~ model(1), data = fTHg_Combined, flow = "Flow", :</t>
+  </si>
+  <si>
+    <t>In loadReg(fTHg ~ model(2), data = fTHg_Combined, flow = "Flow", :</t>
+  </si>
+  <si>
+    <t>In loadReg(fTHg ~ model(3), data = fTHg_Combined, flow = "Flow", :</t>
+  </si>
+  <si>
+    <t>In loadReg(fTHg ~ model(4), data = fTHg_Combined, flow = "Flow", :</t>
+  </si>
+  <si>
+    <t>In loadReg(fTHg ~ model(5), data = fTHg_Combined, flow = "Flow", :</t>
+  </si>
+  <si>
+    <t>In loadReg(fTHg ~ model(6), data = fTHg_Combined, flow = "Flow", :</t>
+  </si>
+  <si>
+    <t>In loadReg(fTHg ~ model(7), data = fTHg_Combined, flow = "Flow", :</t>
+  </si>
+  <si>
+    <t>In loadReg(fTHg ~ model(8), data = fTHg_Combined, flow = "Flow", :</t>
+  </si>
+  <si>
+    <t>In loadReg(fTHg ~ model(9), data = fTHg_Combined, flow = "Flow", :</t>
   </si>
 </sst>
 </file>
@@ -1722,7 +2320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1846,6 +2444,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1870,23 +2489,131 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2349,11 +3076,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE30"/>
+  <dimension ref="A1:AE43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q18" sqref="Q18"/>
+      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2375,24 +3102,24 @@
       <c r="A1" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="47"/>
+      <c r="M1" s="54"/>
       <c r="O1" s="21"/>
       <c r="R1" s="8" t="s">
         <v>10</v>
@@ -2533,39 +3260,39 @@
       <c r="Q5" s="37"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="59" t="s">
         <v>272</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="54"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="56" t="s">
         <v>463</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="48" t="s">
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="48"/>
+      <c r="M7" s="55"/>
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:31" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -2745,16 +3472,16 @@
       <c r="AE10" s="9"/>
     </row>
     <row r="11" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="56">
+      <c r="A11" s="49">
         <v>3</v>
       </c>
-      <c r="B11" s="56">
+      <c r="B11" s="49">
         <v>0</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="50">
         <v>1E-4</v>
       </c>
       <c r="E11" s="43" t="s">
@@ -2766,22 +3493,22 @@
       <c r="G11" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="56" t="s">
+      <c r="H11" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="56">
+      <c r="I11" s="49">
         <v>94.05</v>
       </c>
-      <c r="J11" s="56">
+      <c r="J11" s="49">
         <v>4.8300000000000003E-2</v>
       </c>
-      <c r="K11" s="56">
+      <c r="K11" s="49">
         <v>0.17929999999999999</v>
       </c>
-      <c r="L11" s="56">
+      <c r="L11" s="49">
         <v>-10.199999999999999</v>
       </c>
-      <c r="M11" s="56">
+      <c r="M11" s="49">
         <v>0.85709999999999997</v>
       </c>
       <c r="N11" s="44">
@@ -2793,7 +3520,7 @@
       <c r="P11" s="44" t="s">
         <v>465</v>
       </c>
-      <c r="Q11" s="58" t="s">
+      <c r="Q11" s="51" t="s">
         <v>467</v>
       </c>
       <c r="R11" s="8" t="s">
@@ -2870,10 +3597,10 @@
       <c r="B13" s="6">
         <v>0</v>
       </c>
-      <c r="C13" s="55">
+      <c r="C13" s="48">
         <v>4.0899999999999999E-2</v>
       </c>
-      <c r="D13" s="55">
+      <c r="D13" s="48">
         <v>0</v>
       </c>
       <c r="E13" s="10" t="s">
@@ -3150,41 +3877,64 @@
       </c>
       <c r="AE17" s="9"/>
     </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+    </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B19" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="R19" s="1"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="59" t="s">
+        <v>658</v>
+      </c>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="R19" s="47"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B20" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="48" t="s">
+      <c r="A20" s="47"/>
+      <c r="B20" s="56" t="s">
+        <v>469</v>
+      </c>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="48"/>
-      <c r="R20" s="1"/>
+      <c r="M20" s="55"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="R20" s="47"/>
     </row>
     <row r="21" spans="1:31" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
@@ -3243,76 +3993,72 @@
       </c>
     </row>
     <row r="22" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="11">
+      <c r="A22" s="6">
         <v>1</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="6">
         <v>0</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="43" t="s">
+      <c r="D22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="E22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="43" t="s">
+      <c r="G22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="11">
-        <v>87.17</v>
-      </c>
-      <c r="J22" s="11">
-        <v>0.38490000000000002</v>
-      </c>
-      <c r="K22" s="11">
-        <v>0.3201</v>
-      </c>
-      <c r="L22" s="11">
-        <v>14.3</v>
-      </c>
-      <c r="M22" s="11">
-        <v>0.87339999999999995</v>
-      </c>
-      <c r="N22" s="44">
+      <c r="I22" s="6">
+        <v>91.17</v>
+      </c>
+      <c r="J22" s="6">
+        <v>4.6300000000000001E-2</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0.68569999999999998</v>
+      </c>
+      <c r="L22" s="6">
+        <v>6.9470000000000001</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0.87390000000000001</v>
+      </c>
+      <c r="N22" s="6">
         <v>1</v>
       </c>
-      <c r="O22" s="44" t="s">
+      <c r="O22" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="P22" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q22" s="44" t="s">
-        <v>270</v>
-      </c>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
       <c r="R22" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T22" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD22" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="AB22" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="39">
+      <c r="A23" s="47">
         <v>2</v>
       </c>
       <c r="B23" s="6">
         <v>0</v>
       </c>
       <c r="C23" s="19">
-        <v>0.71940000000000004</v>
+        <v>0.95079999999999998</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>9</v>
@@ -3329,22 +4075,22 @@
       <c r="H23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="41">
-        <v>87.2</v>
-      </c>
-      <c r="J23" s="41">
-        <v>0.59019999999999995</v>
-      </c>
-      <c r="K23" s="41">
-        <v>0.33429999999999999</v>
-      </c>
-      <c r="L23" s="41">
-        <v>17.87</v>
-      </c>
-      <c r="M23" s="41">
-        <v>0.85460000000000003</v>
-      </c>
-      <c r="N23" s="45">
+      <c r="I23" s="52">
+        <v>91.17</v>
+      </c>
+      <c r="J23" s="52">
+        <v>4.2299999999999997E-2</v>
+      </c>
+      <c r="K23" s="52">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="L23" s="52">
+        <v>6.5759999999999996</v>
+      </c>
+      <c r="M23" s="52">
+        <v>0.87460000000000004</v>
+      </c>
+      <c r="N23" s="47">
         <v>2</v>
       </c>
       <c r="O23" s="40"/>
@@ -3354,76 +4100,76 @@
         <v>10</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD23" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB23" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="31">
+      <c r="A24" s="49">
         <v>3</v>
       </c>
-      <c r="B24" s="31">
+      <c r="B24" s="49">
         <v>0</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="32">
-        <v>1.7600000000000001E-2</v>
-      </c>
-      <c r="E24" s="10" t="s">
+      <c r="D24" s="50">
+        <v>0</v>
+      </c>
+      <c r="E24" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="31" t="s">
+      <c r="H24" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="31">
-        <v>88.49</v>
-      </c>
-      <c r="J24" s="31">
-        <v>0.1167</v>
-      </c>
-      <c r="K24" s="31">
-        <v>0.24640000000000001</v>
-      </c>
-      <c r="L24" s="31">
-        <v>6.3390000000000004</v>
-      </c>
-      <c r="M24" s="31">
-        <v>0.90169999999999995</v>
-      </c>
-      <c r="N24" s="31">
+      <c r="I24" s="49">
+        <v>95.47</v>
+      </c>
+      <c r="J24" s="49">
+        <v>6.2300000000000001E-2</v>
+      </c>
+      <c r="K24" s="49">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="L24" s="49">
+        <v>-5.6079999999999997</v>
+      </c>
+      <c r="M24" s="49">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="N24" s="44">
         <v>3</v>
       </c>
-      <c r="O24" s="31" t="s">
+      <c r="O24" s="44" t="s">
         <v>267</v>
       </c>
-      <c r="P24" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q24" s="31" t="s">
-        <v>271</v>
+      <c r="P24" s="44" t="s">
+        <v>656</v>
+      </c>
+      <c r="Q24" s="53" t="s">
+        <v>9</v>
       </c>
       <c r="R24" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD24" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="AB24" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="39">
+      <c r="A25" s="47">
         <v>4</v>
       </c>
       <c r="B25" s="6">
@@ -3439,56 +4185,56 @@
         <v>9</v>
       </c>
       <c r="F25" s="6">
-        <v>0.65369999999999995</v>
-      </c>
-      <c r="G25" s="41">
-        <v>7.7000000000000002E-3</v>
+        <v>0.21659999999999999</v>
+      </c>
+      <c r="G25" s="52">
+        <v>3.6900000000000002E-2</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="41">
-        <v>89.65</v>
-      </c>
-      <c r="J25" s="41">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="K25" s="41">
-        <v>0.24560000000000001</v>
-      </c>
-      <c r="L25" s="41">
-        <v>20.56</v>
-      </c>
-      <c r="M25" s="41">
-        <v>0.81059999999999999</v>
+      <c r="I25" s="52">
+        <v>92.45</v>
+      </c>
+      <c r="J25" s="52">
+        <v>9.5899999999999999E-2</v>
+      </c>
+      <c r="K25" s="52">
+        <v>0.5554</v>
+      </c>
+      <c r="L25" s="52">
+        <v>7.6849999999999996</v>
+      </c>
+      <c r="M25" s="52">
+        <v>0.84419999999999995</v>
       </c>
       <c r="N25" s="31">
         <v>4</v>
       </c>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
       <c r="R25" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T25" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD25" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="AB25" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="39">
+      <c r="A26" s="47">
         <v>5</v>
       </c>
       <c r="B26" s="6">
         <v>0</v>
       </c>
-      <c r="C26" s="41">
-        <v>0.40479999999999999</v>
-      </c>
-      <c r="D26" s="41">
-        <v>1.2800000000000001E-2</v>
+      <c r="C26" s="52">
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="D26" s="52">
+        <v>0</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>9</v>
@@ -3502,45 +4248,49 @@
       <c r="H26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="41">
-        <v>88.64</v>
-      </c>
-      <c r="J26" s="41">
-        <v>0.21970000000000001</v>
-      </c>
-      <c r="K26" s="41">
-        <v>0.2651</v>
-      </c>
-      <c r="L26" s="41">
-        <v>13.51</v>
-      </c>
-      <c r="M26" s="41">
-        <v>0.89159999999999995</v>
+      <c r="I26" s="52">
+        <v>95.93</v>
+      </c>
+      <c r="J26" s="52">
+        <v>0.37919999999999998</v>
+      </c>
+      <c r="K26" s="52">
+        <v>0.34</v>
+      </c>
+      <c r="L26" s="52">
+        <v>-0.3241</v>
+      </c>
+      <c r="M26" s="52">
+        <v>0.92290000000000005</v>
       </c>
       <c r="N26" s="31">
         <v>5</v>
       </c>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
+      <c r="O26" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="P26" s="47" t="s">
+        <v>657</v>
+      </c>
       <c r="R26" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T26" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD26" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="AB26" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="39">
+      <c r="A27" s="47">
         <v>6</v>
       </c>
       <c r="B27" s="6">
         <v>0</v>
       </c>
-      <c r="C27" s="41">
-        <v>0.42</v>
+      <c r="C27" s="52">
+        <v>0.49230000000000002</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>9</v>
@@ -3549,46 +4299,46 @@
         <v>9</v>
       </c>
       <c r="F27" s="6">
-        <v>0.53090000000000004</v>
-      </c>
-      <c r="G27" s="41">
-        <v>5.5999999999999999E-3</v>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="G27" s="52">
+        <v>3.4099999999999998E-2</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="41">
-        <v>89.78</v>
-      </c>
-      <c r="J27" s="41">
-        <v>0.35170000000000001</v>
-      </c>
-      <c r="K27" s="41">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="L27" s="41">
-        <v>12.38</v>
-      </c>
-      <c r="M27" s="41">
-        <v>0.85319999999999996</v>
+      <c r="I27" s="52">
+        <v>92.55</v>
+      </c>
+      <c r="J27" s="52">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="K27" s="52">
+        <v>0.51780000000000004</v>
+      </c>
+      <c r="L27" s="52">
+        <v>4.452</v>
+      </c>
+      <c r="M27" s="52">
+        <v>0.85509999999999997</v>
       </c>
       <c r="N27" s="31">
         <v>6</v>
       </c>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
       <c r="R27" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD27" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="AB27" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="39">
+      <c r="A28" s="47">
         <v>7</v>
       </c>
       <c r="B28" s="6">
@@ -3598,220 +4348,876 @@
         <v>9</v>
       </c>
       <c r="D28" s="6">
-        <v>7.6999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="6">
-        <v>0.47939999999999999</v>
-      </c>
-      <c r="G28" s="41">
-        <v>1.04E-2</v>
+        <v>0.30680000000000002</v>
+      </c>
+      <c r="G28" s="52">
+        <v>0.98370000000000002</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="41">
-        <v>90.26</v>
-      </c>
-      <c r="J28" s="41">
-        <v>0.18090000000000001</v>
-      </c>
-      <c r="K28" s="41">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="L28" s="41">
-        <v>13.31</v>
-      </c>
-      <c r="M28" s="41">
-        <v>0.87260000000000004</v>
+      <c r="I28" s="52">
+        <v>96.03</v>
+      </c>
+      <c r="J28" s="52">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="K28" s="52">
+        <v>0.33850000000000002</v>
+      </c>
+      <c r="L28" s="52">
+        <v>-4.1310000000000002</v>
+      </c>
+      <c r="M28" s="52">
+        <v>0.93259999999999998</v>
       </c>
       <c r="N28" s="31">
         <v>7</v>
       </c>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
       <c r="R28" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T28" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD28" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="AB28" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="39">
+      <c r="A29" s="47">
         <v>8</v>
       </c>
       <c r="B29" s="6">
         <v>0</v>
       </c>
-      <c r="C29" s="41">
-        <v>0.71299999999999997</v>
+      <c r="C29" s="52">
+        <v>0.19489999999999999</v>
       </c>
       <c r="D29" s="6">
-        <v>0.1061</v>
+        <v>0</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F29" s="6">
-        <v>0.44269999999999998</v>
+        <v>0.2999</v>
       </c>
       <c r="G29" s="6">
-        <v>1.2500000000000001E-2</v>
+        <v>0.76470000000000005</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="41">
-        <v>90.28</v>
-      </c>
-      <c r="J29" s="41">
-        <v>0.16889999999999999</v>
-      </c>
-      <c r="K29" s="41">
-        <v>0.1862</v>
-      </c>
-      <c r="L29" s="41">
-        <v>10.16</v>
-      </c>
-      <c r="M29" s="41">
-        <v>0.87819999999999998</v>
+      <c r="I29" s="52">
+        <v>96.21</v>
+      </c>
+      <c r="J29" s="52">
+        <v>0.3342</v>
+      </c>
+      <c r="K29" s="52">
+        <v>0.3619</v>
+      </c>
+      <c r="L29" s="52">
+        <v>-0.75290000000000001</v>
+      </c>
+      <c r="M29" s="52">
+        <v>0.94899999999999995</v>
       </c>
       <c r="N29" s="31">
         <v>8</v>
       </c>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
       <c r="R29" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T29" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD29" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="AB29" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="39">
+      <c r="A30" s="47">
         <v>9</v>
       </c>
       <c r="B30" s="6">
         <v>0</v>
       </c>
-      <c r="C30" s="41">
-        <v>0.79120000000000001</v>
+      <c r="C30" s="52">
+        <v>0.1459</v>
       </c>
       <c r="D30" s="6">
-        <v>0.2009</v>
+        <v>0</v>
       </c>
       <c r="E30" s="6">
-        <v>1.8800000000000001E-2</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="F30" s="6">
-        <v>0.77890000000000004</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="G30" s="6">
-        <v>5.11E-2</v>
+        <v>0.14080000000000001</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I30" s="41">
-        <v>91.26</v>
-      </c>
-      <c r="J30" s="41">
-        <v>0.2591</v>
-      </c>
-      <c r="K30" s="41">
-        <v>0.105</v>
-      </c>
-      <c r="L30" s="41">
-        <v>10.08</v>
-      </c>
-      <c r="M30" s="41">
-        <v>0.89280000000000004</v>
+      <c r="I30" s="52">
+        <v>96.98</v>
+      </c>
+      <c r="J30" s="52">
+        <v>0.47439999999999999</v>
+      </c>
+      <c r="K30" s="52">
+        <v>0.2465</v>
+      </c>
+      <c r="L30" s="52">
+        <v>0.45229999999999998</v>
+      </c>
+      <c r="M30" s="52">
+        <v>0.96330000000000005</v>
       </c>
       <c r="N30" s="31">
         <v>9</v>
       </c>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
       <c r="R30" s="8" t="s">
         <v>10</v>
       </c>
       <c r="T30" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="AB30" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B32" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="R32" s="1"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B33" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33" s="55"/>
+      <c r="R33" s="1"/>
+    </row>
+    <row r="34" spans="1:30" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N34" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="O34" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="P34" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q34" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="11">
+        <v>1</v>
+      </c>
+      <c r="B35" s="11">
+        <v>0</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="11">
+        <v>87.17</v>
+      </c>
+      <c r="J35" s="11">
+        <v>0.38490000000000002</v>
+      </c>
+      <c r="K35" s="11">
+        <v>0.3201</v>
+      </c>
+      <c r="L35" s="11">
+        <v>14.3</v>
+      </c>
+      <c r="M35" s="11">
+        <v>0.87339999999999995</v>
+      </c>
+      <c r="N35" s="44">
+        <v>1</v>
+      </c>
+      <c r="O35" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="P35" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q35" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="R35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T35" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD35" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="39">
+        <v>2</v>
+      </c>
+      <c r="B36" s="6">
+        <v>0</v>
+      </c>
+      <c r="C36" s="19">
+        <v>0.71940000000000004</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="41">
+        <v>87.2</v>
+      </c>
+      <c r="J36" s="41">
+        <v>0.59019999999999995</v>
+      </c>
+      <c r="K36" s="41">
+        <v>0.33429999999999999</v>
+      </c>
+      <c r="L36" s="41">
+        <v>17.87</v>
+      </c>
+      <c r="M36" s="41">
+        <v>0.85460000000000003</v>
+      </c>
+      <c r="N36" s="45">
+        <v>2</v>
+      </c>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T36" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD36" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="31">
+        <v>3</v>
+      </c>
+      <c r="B37" s="31">
+        <v>0</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="32">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="31">
+        <v>88.49</v>
+      </c>
+      <c r="J37" s="31">
+        <v>0.1167</v>
+      </c>
+      <c r="K37" s="31">
+        <v>0.24640000000000001</v>
+      </c>
+      <c r="L37" s="31">
+        <v>6.3390000000000004</v>
+      </c>
+      <c r="M37" s="31">
+        <v>0.90169999999999995</v>
+      </c>
+      <c r="N37" s="31">
+        <v>3</v>
+      </c>
+      <c r="O37" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="P37" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q37" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="R37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T37" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD37" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="39">
+        <v>4</v>
+      </c>
+      <c r="B38" s="6">
+        <v>0</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0.65369999999999995</v>
+      </c>
+      <c r="G38" s="41">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="41">
+        <v>89.65</v>
+      </c>
+      <c r="J38" s="41">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="K38" s="41">
+        <v>0.24560000000000001</v>
+      </c>
+      <c r="L38" s="41">
+        <v>20.56</v>
+      </c>
+      <c r="M38" s="41">
+        <v>0.81059999999999999</v>
+      </c>
+      <c r="N38" s="31">
+        <v>4</v>
+      </c>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="R38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T38" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD38" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="39">
+        <v>5</v>
+      </c>
+      <c r="B39" s="6">
+        <v>0</v>
+      </c>
+      <c r="C39" s="41">
+        <v>0.40479999999999999</v>
+      </c>
+      <c r="D39" s="41">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="41">
+        <v>88.64</v>
+      </c>
+      <c r="J39" s="41">
+        <v>0.21970000000000001</v>
+      </c>
+      <c r="K39" s="41">
+        <v>0.2651</v>
+      </c>
+      <c r="L39" s="41">
+        <v>13.51</v>
+      </c>
+      <c r="M39" s="41">
+        <v>0.89159999999999995</v>
+      </c>
+      <c r="N39" s="31">
+        <v>5</v>
+      </c>
+      <c r="O39" s="39"/>
+      <c r="P39" s="39"/>
+      <c r="R39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T39" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD39" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="39">
+        <v>6</v>
+      </c>
+      <c r="B40" s="6">
+        <v>0</v>
+      </c>
+      <c r="C40" s="41">
+        <v>0.42</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0.53090000000000004</v>
+      </c>
+      <c r="G40" s="41">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="41">
+        <v>89.78</v>
+      </c>
+      <c r="J40" s="41">
+        <v>0.35170000000000001</v>
+      </c>
+      <c r="K40" s="41">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="L40" s="41">
+        <v>12.38</v>
+      </c>
+      <c r="M40" s="41">
+        <v>0.85319999999999996</v>
+      </c>
+      <c r="N40" s="31">
+        <v>6</v>
+      </c>
+      <c r="O40" s="39"/>
+      <c r="P40" s="39"/>
+      <c r="R40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T40" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD40" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="39">
+        <v>7</v>
+      </c>
+      <c r="B41" s="6">
+        <v>0</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="6">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0.47939999999999999</v>
+      </c>
+      <c r="G41" s="41">
+        <v>1.04E-2</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="41">
+        <v>90.26</v>
+      </c>
+      <c r="J41" s="41">
+        <v>0.18090000000000001</v>
+      </c>
+      <c r="K41" s="41">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="L41" s="41">
+        <v>13.31</v>
+      </c>
+      <c r="M41" s="41">
+        <v>0.87260000000000004</v>
+      </c>
+      <c r="N41" s="31">
+        <v>7</v>
+      </c>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="R41" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD41" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="39">
+        <v>8</v>
+      </c>
+      <c r="B42" s="6">
+        <v>0</v>
+      </c>
+      <c r="C42" s="41">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0.1061</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0.44269999999999998</v>
+      </c>
+      <c r="G42" s="6">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="41">
+        <v>90.28</v>
+      </c>
+      <c r="J42" s="41">
+        <v>0.16889999999999999</v>
+      </c>
+      <c r="K42" s="41">
+        <v>0.1862</v>
+      </c>
+      <c r="L42" s="41">
+        <v>10.16</v>
+      </c>
+      <c r="M42" s="41">
+        <v>0.87819999999999998</v>
+      </c>
+      <c r="N42" s="31">
+        <v>8</v>
+      </c>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="R42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T42" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD42" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="39">
+        <v>9</v>
+      </c>
+      <c r="B43" s="6">
+        <v>0</v>
+      </c>
+      <c r="C43" s="41">
+        <v>0.79120000000000001</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0.2009</v>
+      </c>
+      <c r="E43" s="6">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="F43" s="6">
+        <v>0.77890000000000004</v>
+      </c>
+      <c r="G43" s="6">
+        <v>5.11E-2</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="41">
+        <v>91.26</v>
+      </c>
+      <c r="J43" s="41">
+        <v>0.2591</v>
+      </c>
+      <c r="K43" s="41">
+        <v>0.105</v>
+      </c>
+      <c r="L43" s="41">
+        <v>10.08</v>
+      </c>
+      <c r="M43" s="41">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="N43" s="31">
+        <v>9</v>
+      </c>
+      <c r="O43" s="39"/>
+      <c r="P43" s="39"/>
+      <c r="R43" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T43" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AD30" s="9" t="s">
+      <c r="AD43" s="9" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="14">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L32:M32"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="L19:M19"/>
     <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="L20:M20"/>
   </mergeCells>
-  <conditionalFormatting sqref="M19 L55:L1048576">
-    <cfRule type="cellIs" dxfId="11" priority="50" operator="between">
+  <conditionalFormatting sqref="M32 L68:L1048576">
+    <cfRule type="cellIs" dxfId="23" priority="62" operator="between">
       <formula>0.5</formula>
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="63" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="64" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L19 K31:K1048576">
-    <cfRule type="cellIs" dxfId="8" priority="36" operator="lessThan">
+  <conditionalFormatting sqref="L32 K44:K1048576">
+    <cfRule type="cellIs" dxfId="20" priority="48" operator="lessThan">
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="49" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22:J30 J9:J17">
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="lessThan">
+  <conditionalFormatting sqref="J35:J43 J9:J17">
+    <cfRule type="cellIs" dxfId="18" priority="27" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M22:M30 M9:M17">
-    <cfRule type="cellIs" dxfId="5" priority="19" operator="between">
+  <conditionalFormatting sqref="M35:M43 M9:M17">
+    <cfRule type="cellIs" dxfId="17" priority="31" operator="between">
       <formula>0.5</formula>
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="32" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="33" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22:L30 L9:L17">
-    <cfRule type="cellIs" dxfId="2" priority="17" operator="lessThan">
+  <conditionalFormatting sqref="L35:L43 L9:L17">
+    <cfRule type="cellIs" dxfId="14" priority="29" operator="lessThan">
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="30" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23 D24 C26:C27 D26 C29:C30 D28:D30 E30 F25:G25 F27:G30 C10 D11 C13:C14 D13 C16:C17 D15:D17 E17 F12:G12 F14:G17">
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="greaterThan">
+  <conditionalFormatting sqref="C36 D37 C39:C40 D39 C42:C43 D41:D43 E43 F38:G38 F40:G43 C10 D11 C13:C14 D13 C16:C17 D15:D17 E17 F12:G12 F14:G17">
+    <cfRule type="cellIs" dxfId="12" priority="28" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="between">
+      <formula>0.5</formula>
+      <formula>0.8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="greaterThan">
+      <formula>0.8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="lessThan">
+      <formula>-25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThan">
+      <formula>25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22:J30">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M22:M30">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="between">
+      <formula>0.5</formula>
+      <formula>0.8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThan">
+      <formula>0.8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22:L30">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>-25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
+      <formula>25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23 D24 C26:C27 D26 C29:C30 D28:D30 E30 F25:G25 F27:G30">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3822,6 +5228,2476 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE7005E-2CB4-4CDC-9CDF-086CEDCA7002}">
+  <dimension ref="A1:A528"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="13"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="13"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="13"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="13"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="13"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="13"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="14" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="14" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="14" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="13"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="13"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="14" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="13"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="14" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="13"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="15" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="15" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="13"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="13"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="14" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="14" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="14" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="13"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="13"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="13"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="14" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="14" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="14" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="13"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="14" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="14" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="14" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="14" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="14" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="14" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="13"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="14" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="14" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="13"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="14" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="13"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="14" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="14" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="14" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="13"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="7" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="15" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="13"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="13"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="14" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="14" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="14" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="13"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="13"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="13"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="14" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="14" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="14" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="14" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="13"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="14" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="14" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="14" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="14" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="14" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="14" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="13"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="14" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="14" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="14" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="13"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="14" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="13"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="14" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="14" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="14" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="13"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="15" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="7" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="15" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="13"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="13"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="14" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="14" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="14" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="13"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="13"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="13"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="14" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="14" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="14" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="14" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="13"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="14" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="14" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="14" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="14" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="14" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="14" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="13"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="14" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="14" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="14" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="13"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="14" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="13"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="14" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="14" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="14" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="13"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="15" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="7" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="15" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="13"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="13"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="14" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="14" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="14" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="13"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="13"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="13"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="14" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="14" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="14" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="14" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="14" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="13"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="14" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="14" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="14" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="14" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="14" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="13"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="14" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="14" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="14" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="14" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="13"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="14" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="13"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="14" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="14" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="14" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="13"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="15" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="7" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="15" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="13"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="13"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="14" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="14" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="14" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="13"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="13"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="13"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="14" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="14" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="14" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="14" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="14" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="13"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="14" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="14" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="14" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="14" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="14" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="14" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="13"/>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="14" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="14" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="14" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="14" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="13"/>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="14" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="13"/>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="14" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="14" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="14" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="13"/>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="15" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="7" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="15" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="13"/>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="13"/>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="14" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="14" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="14" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="13"/>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="13"/>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="13"/>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="14" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="14" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="14" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="14" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="14" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="14" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="13"/>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="14" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="14" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="14" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" s="14" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="14" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" s="14" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" s="13"/>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="14" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="14" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" s="14" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="14" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" s="14" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" s="13"/>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" s="14" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" s="14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" s="13"/>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" s="14" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" s="14" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" s="14" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" s="13"/>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" s="7" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" s="15" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" s="13"/>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" s="14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" s="13"/>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" s="14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" s="14" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" s="14" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" s="14" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" s="13"/>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" s="13"/>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" s="13"/>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" s="14" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" s="14" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" s="14" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" s="14" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" s="14" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" s="14" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" s="14" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" s="13"/>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" s="14" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" s="14" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" s="14" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" s="14" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" s="14" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" s="14" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="13"/>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" s="14" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" s="14" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" s="14" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" s="14" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" s="14" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" s="14" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" s="13"/>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" s="14" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" s="14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" s="13"/>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" s="14" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" s="14" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" s="14" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" s="16"/>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" s="16"/>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" s="17"/>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E8CF0D-1596-4A2F-A50C-9BD320018867}">
   <dimension ref="A1:A528"/>
   <sheetViews>
@@ -6291,7 +10167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7110874D-1AB5-4D4C-BDF4-3EDF5D1201E0}">
   <dimension ref="A1:A530"/>
   <sheetViews>
